--- a/VerveStacks_ZAF/SuppXLS/scen_tsparameters_ts_192.xlsx
+++ b/VerveStacks_ZAF/SuppXLS/scen_tsparameters_ts_192.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACF6B2A-73F4-4B94-BEA6-2108E5FD11B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEFAC87-87A2-437D-A011-811320DA2E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1245,10 +1245,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rah15,Sah09,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rah18,Rc0416h11,Wb0121h13,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah13,Tah08,Wb0121h07,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10</t>
-  </si>
-  <si>
-    <t>Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Rah03,Rc0416h02,Wah21,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah02,Rah20,Wah01,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22</t>
+    <t>Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rah18,Rc0416h11,Wb0121h13,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah13,Tah08,Wb0121h07,Rah15,Sah09,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12</t>
+  </si>
+  <si>
+    <t>Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rah02,Rah20,Wah01,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah03,Rc0416h02,Wah21,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1747,14 +1747,14 @@
   <dimension ref="B1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.45">
       <c r="H1" s="1">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>5</v>
@@ -1819,11 +1819,11 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Rah03,Rc0416h02,Wah21,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah02,Rah20,Wah01,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22</v>
+        <v>Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rah02,Rah20,Wah01,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah03,Rc0416h02,Wah21,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1851,11 +1851,11 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rah15,Sah09,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rah18,Rc0416h11,Wb0121h13,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah13,Tah08,Wb0121h07,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10</v>
+        <v>Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rah18,Rc0416h11,Wb0121h13,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah13,Tah08,Wb0121h07,Rah15,Sah09,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="L8" t="s">
         <v>11</v>
@@ -2464,7 +2464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936A3CBF-F101-4AAE-BF94-81FE1824C60B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32D95E8-B673-4846-8B79-DE54165093CB}">
   <dimension ref="B2:F123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3501,7 +3501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5722826E-3277-4B25-9FD1-8FBCD2BF8924}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3C100F-6D2A-4D0A-958C-2E7962412C7C}">
   <dimension ref="B2:O195"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3580,10 +3580,10 @@
         <v>204</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N4">
-        <v>0.3936191425722832</v>
+        <v>0.17228315054835491</v>
       </c>
       <c r="O4" t="s">
         <v>408</v>
@@ -3650,10 +3650,10 @@
         <v>204</v>
       </c>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N6">
-        <v>0.17228315054835491</v>
+        <v>0.3936191425722832</v>
       </c>
       <c r="O6" t="s">
         <v>408</v>
@@ -8588,7 +8588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D44DE2-338F-4AA1-A355-03AD2BF6743A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F41B86-6721-4514-8DBA-77F2B17AA01D}">
   <dimension ref="B2:O371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ZAF/SuppXLS/scen_tsparameters_ts_192.xlsx
+++ b/VerveStacks_ZAF/SuppXLS/scen_tsparameters_ts_192.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6898262B-2A78-4878-8865-C7C6DFD6CB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC052DF6-075A-41B1-B9C1-7740B92D26C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1245,10 +1245,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rah15,Sah09,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rah13,Tah08,Wb0121h07,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rah18,Rc0416h11,Wb0121h13,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16</t>
-  </si>
-  <si>
-    <t>Rah02,Rah20,Wah01,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rah03,Rc0416h02,Wah21</t>
+    <t>Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rah18,Rc0416h11,Wb0121h13,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rah15,Sah09,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rah13,Tah08,Wb0121h07,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18</t>
+  </si>
+  <si>
+    <t>Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Rah03,Rc0416h02,Wah21,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah02,Rah20,Wah01</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>Rah02,Rah20,Wah01,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rah03,Rc0416h02,Wah21</v>
+        <v>Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Rah03,Rc0416h02,Wah21,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah02,Rah20,Wah01</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rah15,Sah09,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rah13,Tah08,Wb0121h07,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rah18,Rc0416h11,Wb0121h13,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16</v>
+        <v>Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rah18,Rc0416h11,Wb0121h13,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rah15,Sah09,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rah13,Tah08,Wb0121h07,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2464,7 +2464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7260490-EDBC-453F-A937-3D499F222844}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EE6791-B08B-4F16-86DB-E14780AB8125}">
   <dimension ref="B2:F123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3501,7 +3501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9AAB16-3509-4C1B-85C3-3F1874AFFE4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951B11FE-B11C-43B3-B350-EDE8F3A513D9}">
   <dimension ref="B2:O195"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3580,10 +3580,10 @@
         <v>204</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N4">
-        <v>0.3936191425722832</v>
+        <v>0.17228315054835491</v>
       </c>
       <c r="O4" t="s">
         <v>408</v>
@@ -3615,10 +3615,10 @@
         <v>204</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N5">
-        <v>0.14835493519441673</v>
+        <v>0.39361914257228309</v>
       </c>
       <c r="O5" t="s">
         <v>408</v>
@@ -3650,10 +3650,10 @@
         <v>204</v>
       </c>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N6">
-        <v>0.17228315054835491</v>
+        <v>0.14835493519441673</v>
       </c>
       <c r="O6" t="s">
         <v>408</v>
@@ -3688,7 +3688,7 @@
         <v>22</v>
       </c>
       <c r="N7">
-        <v>0.48574277168494506</v>
+        <v>0.48574277168494512</v>
       </c>
       <c r="O7" t="s">
         <v>408</v>
@@ -8588,7 +8588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3796099F-F1D7-4174-B87E-550B94693C51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3063F2-E56A-48E2-8CCB-4F15FD656CEB}">
   <dimension ref="B2:O371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ZAF/SuppXLS/scen_tsparameters_ts_192.xlsx
+++ b/VerveStacks_ZAF/SuppXLS/scen_tsparameters_ts_192.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC052DF6-075A-41B1-B9C1-7740B92D26C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEA9D75-4199-4C94-9F37-0DF815090C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1245,10 +1245,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rah18,Rc0416h11,Wb0121h13,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rah15,Sah09,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rah13,Tah08,Wb0121h07,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18</t>
-  </si>
-  <si>
-    <t>Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Rah03,Rc0416h02,Wah21,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah02,Rah20,Wah01</t>
+    <t>Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rah15,Sah09,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rah13,Tah08,Wb0121h07,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rah18,Rc0416h11,Wb0121h13,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09</t>
+  </si>
+  <si>
+    <t>Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah03,Rc0416h02,Wah21,Rah02,Rah20,Wah01,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Rah03,Rc0416h02,Wah21,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah02,Rah20,Wah01</v>
+        <v>Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah03,Rc0416h02,Wah21,Rah02,Rah20,Wah01,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rah18,Rc0416h11,Wb0121h13,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rah15,Sah09,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rah13,Tah08,Wb0121h07,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18</v>
+        <v>Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rah15,Sah09,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rah13,Tah08,Wb0121h07,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rah18,Rc0416h11,Wb0121h13,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2464,7 +2464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EE6791-B08B-4F16-86DB-E14780AB8125}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFD43A6-CB86-4A27-905E-EEFE04726F22}">
   <dimension ref="B2:F123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3501,7 +3501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951B11FE-B11C-43B3-B350-EDE8F3A513D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7A8016-3EB6-460E-ADF0-C3DAD4E0B980}">
   <dimension ref="B2:O195"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3583,7 +3583,7 @@
         <v>33</v>
       </c>
       <c r="N4">
-        <v>0.17228315054835491</v>
+        <v>0.17228315054835494</v>
       </c>
       <c r="O4" t="s">
         <v>408</v>
@@ -3615,10 +3615,10 @@
         <v>204</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N5">
-        <v>0.39361914257228309</v>
+        <v>0.48574277168494528</v>
       </c>
       <c r="O5" t="s">
         <v>408</v>
@@ -3653,7 +3653,7 @@
         <v>29</v>
       </c>
       <c r="N6">
-        <v>0.14835493519441673</v>
+        <v>0.14835493519441675</v>
       </c>
       <c r="O6" t="s">
         <v>408</v>
@@ -3685,10 +3685,10 @@
         <v>204</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N7">
-        <v>0.48574277168494512</v>
+        <v>0.39361914257228325</v>
       </c>
       <c r="O7" t="s">
         <v>408</v>
@@ -8588,7 +8588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3063F2-E56A-48E2-8CCB-4F15FD656CEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEAFFB1-14F9-495A-A57A-432B10568EB2}">
   <dimension ref="B2:O371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ZAF/SuppXLS/scen_tsparameters_ts_192.xlsx
+++ b/VerveStacks_ZAF/SuppXLS/scen_tsparameters_ts_192.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEA9D75-4199-4C94-9F37-0DF815090C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD15FD9-B3C8-44AF-A925-2323B5FDEAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3107" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3155" uniqueCount="410">
   <si>
     <t>UC_N</t>
   </si>
@@ -1245,10 +1245,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rah15,Sah09,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rah13,Tah08,Wb0121h07,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rah18,Rc0416h11,Wb0121h13,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09</t>
-  </si>
-  <si>
-    <t>Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah03,Rc0416h02,Wah21,Rah02,Rah20,Wah01,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20</t>
+    <t>Rah18,Rc0416h11,Wb0121h13,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rah13,Tah08,Wb0121h07,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah15,Sah09,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18</t>
+  </si>
+  <si>
+    <t>Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rah03,Rc0416h02,Wah21,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah02,Rah20,Wah01,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah03,Rc0416h02,Wah21,Rah02,Rah20,Wah01,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20</v>
+        <v>Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rah03,Rc0416h02,Wah21,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah02,Rah20,Wah01,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rah15,Sah09,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rah13,Tah08,Wb0121h07,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rah18,Rc0416h11,Wb0121h13,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09</v>
+        <v>Rah18,Rc0416h11,Wb0121h13,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rah13,Tah08,Wb0121h07,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah15,Sah09,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2464,7 +2464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFD43A6-CB86-4A27-905E-EEFE04726F22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5406C5F-BAE3-4BF0-8706-9AAC4A5A5181}">
   <dimension ref="B2:F123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3501,7 +3501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7A8016-3EB6-460E-ADF0-C3DAD4E0B980}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2618F654-53CA-46B2-B8A7-2BA13B91A562}">
   <dimension ref="B2:O195"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3583,7 +3583,7 @@
         <v>33</v>
       </c>
       <c r="N4">
-        <v>0.17228315054835494</v>
+        <v>0.17228315054835491</v>
       </c>
       <c r="O4" t="s">
         <v>408</v>
@@ -3615,10 +3615,10 @@
         <v>204</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N5">
-        <v>0.48574277168494528</v>
+        <v>0.39361914257228309</v>
       </c>
       <c r="O5" t="s">
         <v>408</v>
@@ -3685,10 +3685,10 @@
         <v>204</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N7">
-        <v>0.39361914257228325</v>
+        <v>0.48574277168494512</v>
       </c>
       <c r="O7" t="s">
         <v>408</v>
@@ -8588,8 +8588,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEAFFB1-14F9-495A-A57A-432B10568EB2}">
-  <dimension ref="B2:O371"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268BA772-D9EA-4E56-987C-9DF01C18C56B}">
+  <dimension ref="B2:O387"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8658,7 +8658,7 @@
         <v>202</v>
       </c>
       <c r="J4">
-        <v>6.5425971082937228E-3</v>
+        <v>6.4859315545915388E-3</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
@@ -8667,7 +8667,7 @@
         <v>202</v>
       </c>
       <c r="O4">
-        <v>3.1612024719807286E-2</v>
+        <v>2.4946602688991515E-2</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
@@ -8690,7 +8690,7 @@
         <v>205</v>
       </c>
       <c r="J5">
-        <v>6.5398922299248381E-3</v>
+        <v>6.3683874805321875E-3</v>
       </c>
       <c r="M5" t="s">
         <v>14</v>
@@ -8699,7 +8699,7 @@
         <v>205</v>
       </c>
       <c r="O5">
-        <v>3.176572746891515E-2</v>
+        <v>3.1612024719807286E-2</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.45">
@@ -8722,7 +8722,7 @@
         <v>206</v>
       </c>
       <c r="J6">
-        <v>6.8234697460627571E-3</v>
+        <v>6.3657546249160386E-3</v>
       </c>
       <c r="M6" t="s">
         <v>14</v>
@@ -8731,7 +8731,7 @@
         <v>206</v>
       </c>
       <c r="O6">
-        <v>4.2119964307057556E-2</v>
+        <v>3.176572746891515E-2</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.45">
@@ -8754,7 +8754,7 @@
         <v>207</v>
       </c>
       <c r="J7">
-        <v>7.881560202291216E-3</v>
+        <v>6.6417813271019109E-3</v>
       </c>
       <c r="M7" t="s">
         <v>14</v>
@@ -8763,7 +8763,7 @@
         <v>207</v>
       </c>
       <c r="O7">
-        <v>8.0843635309576278E-2</v>
+        <v>4.2119964307057556E-2</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.45">
@@ -8786,7 +8786,7 @@
         <v>208</v>
       </c>
       <c r="J8">
-        <v>8.8201409209444307E-3</v>
+        <v>7.6716980258046416E-3</v>
       </c>
       <c r="M8" t="s">
         <v>14</v>
@@ -8795,7 +8795,7 @@
         <v>208</v>
       </c>
       <c r="O8">
-        <v>8.8469082976734947E-2</v>
+        <v>8.0843635309576278E-2</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.45">
@@ -8818,7 +8818,7 @@
         <v>209</v>
       </c>
       <c r="J9">
-        <v>1.0402494766742125E-2</v>
+        <v>8.5852871707885175E-3</v>
       </c>
       <c r="M9" t="s">
         <v>14</v>
@@ -8827,7 +8827,7 @@
         <v>209</v>
       </c>
       <c r="O9">
-        <v>8.3907588615938167E-2</v>
+        <v>8.8469082976734947E-2</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.45">
@@ -8850,7 +8850,7 @@
         <v>210</v>
       </c>
       <c r="J10">
-        <v>1.1500687459859273E-2</v>
+        <v>1.0125507706235493E-2</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
@@ -8859,7 +8859,7 @@
         <v>210</v>
       </c>
       <c r="O10">
-        <v>8.955263645237288E-2</v>
+        <v>8.3907588615938167E-2</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.45">
@@ -8882,7 +8882,7 @@
         <v>211</v>
       </c>
       <c r="J11">
-        <v>1.1934204595222391E-2</v>
+        <v>1.119445884021157E-2</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
@@ -8891,7 +8891,7 @@
         <v>211</v>
       </c>
       <c r="O11">
-        <v>4.0470230615652802E-2</v>
+        <v>8.955263645237288E-2</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.45">
@@ -8914,7 +8914,7 @@
         <v>212</v>
       </c>
       <c r="J12">
-        <v>1.1945688252940291E-2</v>
+        <v>1.161643272179797E-2</v>
       </c>
       <c r="M12" t="s">
         <v>14</v>
@@ -8923,7 +8923,7 @@
         <v>212</v>
       </c>
       <c r="O12">
-        <v>7.7671806244732133E-2</v>
+        <v>4.0470230615652802E-2</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.45">
@@ -8946,7 +8946,7 @@
         <v>213</v>
       </c>
       <c r="J13">
-        <v>1.2036126585724951E-2</v>
+        <v>1.1627610604346887E-2</v>
       </c>
       <c r="M13" t="s">
         <v>14</v>
@@ -8955,7 +8955,7 @@
         <v>213</v>
       </c>
       <c r="O13">
-        <v>0.12073302733088598</v>
+        <v>7.7671806244732133E-2</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.45">
@@ -8978,7 +8978,7 @@
         <v>214</v>
       </c>
       <c r="J14">
-        <v>1.2047030626649519E-2</v>
+        <v>1.1715640837102002E-2</v>
       </c>
       <c r="M14" t="s">
         <v>14</v>
@@ -8987,7 +8987,7 @@
         <v>214</v>
       </c>
       <c r="O14">
-        <v>0.12871518295804063</v>
+        <v>0.12073302733088598</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.45">
@@ -9010,7 +9010,7 @@
         <v>215</v>
       </c>
       <c r="J15">
-        <v>1.2046771006627505E-2</v>
+        <v>1.17262545363046E-2</v>
       </c>
       <c r="M15" t="s">
         <v>14</v>
@@ -9019,7 +9019,7 @@
         <v>215</v>
       </c>
       <c r="O15">
-        <v>0.11985731866985549</v>
+        <v>0.12871518295804063</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.45">
@@ -9042,7 +9042,7 @@
         <v>216</v>
       </c>
       <c r="J16">
-        <v>1.19846674822919E-2</v>
+        <v>1.1726001829180729E-2</v>
       </c>
       <c r="M16" t="s">
         <v>14</v>
@@ -9051,7 +9051,7 @@
         <v>216</v>
       </c>
       <c r="O16">
-        <v>0.11474887666019296</v>
+        <v>0.11985731866985549</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.45">
@@ -9074,7 +9074,7 @@
         <v>217</v>
       </c>
       <c r="J17">
-        <v>1.1967291053841788E-2</v>
+        <v>1.1665551934386743E-2</v>
       </c>
       <c r="M17" t="s">
         <v>14</v>
@@ -9083,7 +9083,7 @@
         <v>217</v>
       </c>
       <c r="O17">
-        <v>0.11184247751856935</v>
+        <v>0.11474887666019296</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.45">
@@ -9106,7 +9106,7 @@
         <v>218</v>
       </c>
       <c r="J18">
-        <v>1.2064099133678174E-2</v>
+        <v>1.1648638187816931E-2</v>
       </c>
       <c r="M18" t="s">
         <v>14</v>
@@ -9115,7 +9115,7 @@
         <v>218</v>
       </c>
       <c r="O18">
-        <v>4.6178642377900259E-2</v>
+        <v>0.11184247751856935</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.45">
@@ -9138,7 +9138,7 @@
         <v>219</v>
       </c>
       <c r="J19">
-        <v>1.231118494253587E-2</v>
+        <v>1.1742868560471681E-2</v>
       </c>
       <c r="M19" t="s">
         <v>14</v>
@@ -9147,7 +9147,7 @@
         <v>219</v>
       </c>
       <c r="O19">
-        <v>6.6513624295531093E-2</v>
+        <v>4.6178642377900259E-2</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.45">
@@ -9170,7 +9170,7 @@
         <v>220</v>
       </c>
       <c r="J20">
-        <v>1.2448409218357336E-2</v>
+        <v>1.1983375219478976E-2</v>
       </c>
       <c r="M20" t="s">
         <v>14</v>
@@ -9179,7 +9179,7 @@
         <v>220</v>
       </c>
       <c r="O20">
-        <v>7.0866260273267923E-2</v>
+        <v>6.6513624295531093E-2</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.45">
@@ -9202,7 +9202,7 @@
         <v>221</v>
       </c>
       <c r="J21">
-        <v>1.2563692583481197E-2</v>
+        <v>1.2116945626719663E-2</v>
       </c>
       <c r="M21" t="s">
         <v>14</v>
@@ -9211,7 +9211,7 @@
         <v>221</v>
       </c>
       <c r="O21">
-        <v>6.360151017877369E-2</v>
+        <v>7.0866260273267923E-2</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.45">
@@ -9234,7 +9234,7 @@
         <v>222</v>
       </c>
       <c r="J22">
-        <v>1.2289298370912638E-2</v>
+        <v>1.2229159343538284E-2</v>
       </c>
       <c r="M22" t="s">
         <v>14</v>
@@ -9243,7 +9243,7 @@
         <v>222</v>
       </c>
       <c r="O22">
-        <v>5.4273786647106803E-2</v>
+        <v>6.360151017877369E-2</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.45">
@@ -9266,7 +9266,7 @@
         <v>223</v>
       </c>
       <c r="J23">
-        <v>1.1606183753920717E-2</v>
+        <v>1.1962071421245632E-2</v>
       </c>
       <c r="M23" t="s">
         <v>14</v>
@@ -9275,7 +9275,7 @@
         <v>223</v>
       </c>
       <c r="O23">
-        <v>3.8203106108471996E-2</v>
+        <v>5.4273786647106803E-2</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.45">
@@ -9298,7 +9298,7 @@
         <v>224</v>
       </c>
       <c r="J24">
-        <v>1.0664855893174103E-2</v>
+        <v>1.1297146086151226E-2</v>
       </c>
       <c r="M24" t="s">
         <v>14</v>
@@ -9307,7 +9307,7 @@
         <v>224</v>
       </c>
       <c r="O24">
-        <v>2.42386236975487E-2</v>
+        <v>3.8203106108471996E-2</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.45">
@@ -9330,7 +9330,7 @@
         <v>225</v>
       </c>
       <c r="J25">
-        <v>8.4197042065257775E-3</v>
+        <v>1.0380882947182198E-2</v>
       </c>
       <c r="M25" t="s">
         <v>14</v>
@@ -9339,7 +9339,7 @@
         <v>225</v>
       </c>
       <c r="O25">
-        <v>2.9185667909507496E-2</v>
+        <v>2.42386236975487E-2</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.45">
@@ -9362,7 +9362,7 @@
         <v>226</v>
       </c>
       <c r="J26">
-        <v>7.4164177256418927E-3</v>
+        <v>8.1955128783112209E-3</v>
       </c>
       <c r="M26" t="s">
         <v>14</v>
@@ -9371,7 +9371,7 @@
         <v>226</v>
       </c>
       <c r="O26">
-        <v>3.2400358752589398E-2</v>
+        <v>2.9185667909507496E-2</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.45">
@@ -9391,19 +9391,19 @@
         <v>403</v>
       </c>
       <c r="I27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J27">
-        <v>7.1689942737466824E-5</v>
+        <v>7.2189408903847885E-3</v>
       </c>
       <c r="M27" t="s">
         <v>14</v>
       </c>
       <c r="N27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>3.2400358752589398E-2</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.45">
@@ -9423,16 +9423,16 @@
         <v>403</v>
       </c>
       <c r="I28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J28">
-        <v>7.1689942737466824E-5</v>
+        <v>7.1185637243493437E-5</v>
       </c>
       <c r="M28" t="s">
         <v>14</v>
       </c>
       <c r="N28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -9455,16 +9455,16 @@
         <v>403</v>
       </c>
       <c r="I29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J29">
-        <v>7.3676337789616689E-5</v>
+        <v>6.9781055787556962E-5</v>
       </c>
       <c r="M29" t="s">
         <v>14</v>
       </c>
       <c r="N29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -9487,16 +9487,16 @@
         <v>403</v>
       </c>
       <c r="I30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J30">
-        <v>8.5081505733419533E-5</v>
+        <v>6.9781055787556962E-5</v>
       </c>
       <c r="M30" t="s">
         <v>14</v>
       </c>
       <c r="N30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -9519,16 +9519,16 @@
         <v>403</v>
       </c>
       <c r="I31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J31">
-        <v>9.7917602635761935E-5</v>
+        <v>7.1714559130666136E-5</v>
       </c>
       <c r="M31" t="s">
         <v>14</v>
       </c>
       <c r="N31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -9551,16 +9551,16 @@
         <v>403</v>
       </c>
       <c r="I32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J32">
-        <v>1.1969549611024407E-4</v>
+        <v>8.2816041851435906E-5</v>
       </c>
       <c r="M32" t="s">
         <v>14</v>
       </c>
       <c r="N32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -9583,16 +9583,16 @@
         <v>403</v>
       </c>
       <c r="I33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J33">
-        <v>1.3447572434022254E-4</v>
+        <v>9.5310352208427158E-5</v>
       </c>
       <c r="M33" t="s">
         <v>14</v>
       </c>
       <c r="N33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -9615,16 +9615,16 @@
         <v>403</v>
       </c>
       <c r="I34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J34">
-        <v>1.3950510755736799E-4</v>
+        <v>1.1650836606433851E-4</v>
       </c>
       <c r="M34" t="s">
         <v>14</v>
       </c>
       <c r="N34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -9647,16 +9647,16 @@
         <v>403</v>
       </c>
       <c r="I35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J35">
-        <v>1.362628761196644E-4</v>
+        <v>1.308950413954366E-4</v>
       </c>
       <c r="M35" t="s">
         <v>14</v>
       </c>
       <c r="N35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -9679,16 +9679,16 @@
         <v>403</v>
       </c>
       <c r="I36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J36">
-        <v>1.2555204079287444E-4</v>
+        <v>1.3579050730671305E-4</v>
       </c>
       <c r="M36" t="s">
         <v>14</v>
       </c>
       <c r="N36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -9711,16 +9711,16 @@
         <v>403</v>
       </c>
       <c r="I37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J37">
-        <v>1.2544940031905511E-4</v>
+        <v>1.326346067132491E-4</v>
       </c>
       <c r="M37" t="s">
         <v>14</v>
       </c>
       <c r="N37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -9743,16 +9743,16 @@
         <v>403</v>
       </c>
       <c r="I38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J38">
-        <v>1.2809993961356516E-4</v>
+        <v>1.2220896862608898E-4</v>
       </c>
       <c r="M38" t="s">
         <v>14</v>
       </c>
       <c r="N38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -9775,16 +9775,16 @@
         <v>403</v>
       </c>
       <c r="I39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J39">
-        <v>1.2733919257231627E-4</v>
+        <v>1.221090611585119E-4</v>
       </c>
       <c r="M39" t="s">
         <v>14</v>
       </c>
       <c r="N39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -9807,16 +9807,16 @@
         <v>403</v>
       </c>
       <c r="I40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J40">
-        <v>1.2834748428571758E-4</v>
+        <v>1.2468902458594332E-4</v>
       </c>
       <c r="M40" t="s">
         <v>14</v>
       </c>
       <c r="N40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -9839,16 +9839,16 @@
         <v>403</v>
       </c>
       <c r="I41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J41">
-        <v>1.3868398376681363E-4</v>
+        <v>1.2394853394390149E-4</v>
       </c>
       <c r="M41" t="s">
         <v>14</v>
       </c>
       <c r="N41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -9871,16 +9871,16 @@
         <v>403</v>
       </c>
       <c r="I42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J42">
-        <v>1.4163036913292042E-4</v>
+        <v>1.2492997789009978E-4</v>
       </c>
       <c r="M42" t="s">
         <v>14</v>
       </c>
       <c r="N42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -9903,16 +9903,16 @@
         <v>403</v>
       </c>
       <c r="I43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J43">
-        <v>1.4128018398694873E-4</v>
+        <v>1.349912475660965E-4</v>
       </c>
       <c r="M43" t="s">
         <v>14</v>
       </c>
       <c r="N43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -9935,16 +9935,16 @@
         <v>403</v>
       </c>
       <c r="I44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J44">
-        <v>1.4246356827333587E-4</v>
+        <v>1.3785917957654414E-4</v>
       </c>
       <c r="M44" t="s">
         <v>14</v>
       </c>
       <c r="N44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O44">
         <v>0</v>
@@ -9967,16 +9967,16 @@
         <v>403</v>
       </c>
       <c r="I45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J45">
-        <v>1.3932397730945161E-4</v>
+        <v>1.3751831880481064E-4</v>
       </c>
       <c r="M45" t="s">
         <v>14</v>
       </c>
       <c r="N45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -9999,16 +9999,16 @@
         <v>403</v>
       </c>
       <c r="I46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J46">
-        <v>1.2927728622502178E-4</v>
+        <v>1.3867019313687563E-4</v>
       </c>
       <c r="M46" t="s">
         <v>14</v>
       </c>
       <c r="N46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -10031,16 +10031,16 @@
         <v>403</v>
       </c>
       <c r="I47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J47">
-        <v>1.1809551225364917E-4</v>
+        <v>1.3561420001098883E-4</v>
       </c>
       <c r="M47" t="s">
         <v>14</v>
       </c>
       <c r="N47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -10063,16 +10063,16 @@
         <v>403</v>
       </c>
       <c r="I48" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J48">
-        <v>9.2205962151464691E-5</v>
+        <v>1.2583502200815084E-4</v>
       </c>
       <c r="M48" t="s">
         <v>14</v>
       </c>
       <c r="N48" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -10095,16 +10095,16 @@
         <v>403</v>
       </c>
       <c r="I49" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J49">
-        <v>8.1404561700716533E-5</v>
+        <v>1.1495098495210767E-4</v>
       </c>
       <c r="M49" t="s">
         <v>14</v>
       </c>
       <c r="N49" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -10127,19 +10127,19 @@
         <v>403</v>
       </c>
       <c r="I50" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J50">
-        <v>6.9731925327999079E-3</v>
+        <v>8.9750795483256075E-5</v>
       </c>
       <c r="M50" t="s">
         <v>14</v>
       </c>
       <c r="N50" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O50">
-        <v>4.9542924319893045E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.45">
@@ -10159,19 +10159,19 @@
         <v>403</v>
       </c>
       <c r="I51" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J51">
-        <v>6.9941070387593207E-3</v>
+        <v>7.9237003748233779E-5</v>
       </c>
       <c r="M51" t="s">
         <v>14</v>
       </c>
       <c r="N51" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O51">
-        <v>4.8359663340428627E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.45">
@@ -10191,19 +10191,19 @@
         <v>403</v>
       </c>
       <c r="I52" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J52">
-        <v>7.3521170114410226E-3</v>
+        <v>6.8590805789440247E-3</v>
       </c>
       <c r="M52" t="s">
         <v>14</v>
       </c>
       <c r="N52" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O52">
-        <v>4.4259341804615548E-2</v>
+        <v>5.2335527137823412E-2</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.45">
@@ -10223,19 +10223,19 @@
         <v>403</v>
       </c>
       <c r="I53" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J53">
-        <v>8.9592253244539562E-3</v>
+        <v>6.7875174476095552E-3</v>
       </c>
       <c r="M53" t="s">
         <v>14</v>
       </c>
       <c r="N53" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O53">
-        <v>7.9756245997664399E-2</v>
+        <v>4.9542924319893045E-2</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.45">
@@ -10255,19 +10255,19 @@
         <v>403</v>
       </c>
       <c r="I54" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J54">
-        <v>1.0345258132209992E-2</v>
+        <v>6.8078750633558472E-3</v>
       </c>
       <c r="M54" t="s">
         <v>14</v>
       </c>
       <c r="N54" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O54">
-        <v>8.5829947237552329E-2</v>
+        <v>4.8359663340428627E-2</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.45">
@@ -10287,19 +10287,19 @@
         <v>403</v>
       </c>
       <c r="I55" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J55">
-        <v>1.2286962314523968E-2</v>
+        <v>7.1563523102646694E-3</v>
       </c>
       <c r="M55" t="s">
         <v>14</v>
       </c>
       <c r="N55" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O55">
-        <v>9.5845008758784767E-2</v>
+        <v>4.4259341804615548E-2</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.45">
@@ -10319,19 +10319,19 @@
         <v>403</v>
       </c>
       <c r="I56" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J56">
-        <v>1.3508571120896424E-2</v>
+        <v>8.7206681761272907E-3</v>
       </c>
       <c r="M56" t="s">
         <v>14</v>
       </c>
       <c r="N56" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O56">
-        <v>9.9866819510688654E-2</v>
+        <v>7.9756245997664399E-2</v>
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.45">
@@ -10351,19 +10351,19 @@
         <v>403</v>
       </c>
       <c r="I57" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J57">
-        <v>1.3690613057727339E-2</v>
+        <v>1.0069795110648618E-2</v>
       </c>
       <c r="M57" t="s">
         <v>14</v>
       </c>
       <c r="N57" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O57">
-        <v>9.9661856774582169E-2</v>
+        <v>8.5829947237552329E-2</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.45">
@@ -10383,19 +10383,19 @@
         <v>403</v>
       </c>
       <c r="I58" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J58">
-        <v>1.2779914321903387E-2</v>
+        <v>1.1959797566992773E-2</v>
       </c>
       <c r="M58" t="s">
         <v>14</v>
       </c>
       <c r="N58" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O58">
-        <v>7.4032009336056248E-2</v>
+        <v>9.5845008758784767E-2</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.45">
@@ -10415,19 +10415,19 @@
         <v>403</v>
       </c>
       <c r="I59" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J59">
-        <v>1.2546135548592617E-2</v>
+        <v>1.3148878615365492E-2</v>
       </c>
       <c r="M59" t="s">
         <v>14</v>
       </c>
       <c r="N59" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O59">
-        <v>4.2688767627296231E-2</v>
+        <v>9.9866819510688654E-2</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.45">
@@ -10447,19 +10447,19 @@
         <v>403</v>
       </c>
       <c r="I60" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J60">
-        <v>1.2580906518517636E-2</v>
+        <v>1.3326073324478212E-2</v>
       </c>
       <c r="M60" t="s">
         <v>14</v>
       </c>
       <c r="N60" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O60">
-        <v>4.2598007985766406E-2</v>
+        <v>9.9661856774582169E-2</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.45">
@@ -10479,19 +10479,19 @@
         <v>403</v>
       </c>
       <c r="I61" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J61">
-        <v>1.2577585797305836E-2</v>
+        <v>1.2439623749216155E-2</v>
       </c>
       <c r="M61" t="s">
         <v>14</v>
       </c>
       <c r="N61" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O61">
-        <v>4.2741461576814244E-2</v>
+        <v>7.4032009336056248E-2</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.45">
@@ -10511,19 +10511,19 @@
         <v>403</v>
       </c>
       <c r="I62" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J62">
-        <v>1.2561875767136554E-2</v>
+        <v>1.2212069799534734E-2</v>
       </c>
       <c r="M62" t="s">
         <v>14</v>
       </c>
       <c r="N62" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O62">
-        <v>4.25094581310137E-2</v>
+        <v>4.2688767627296231E-2</v>
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.45">
@@ -10543,19 +10543,19 @@
         <v>403</v>
       </c>
       <c r="I63" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J63">
-        <v>1.2612731103076549E-2</v>
+        <v>1.2245914923403932E-2</v>
       </c>
       <c r="M63" t="s">
         <v>14</v>
       </c>
       <c r="N63" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O63">
-        <v>4.0315912482569827E-2</v>
+        <v>4.2598007985766406E-2</v>
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.45">
@@ -10575,19 +10575,19 @@
         <v>403</v>
       </c>
       <c r="I64" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J64">
-        <v>1.3825555092425059E-2</v>
+        <v>1.224268262298232E-2</v>
       </c>
       <c r="M64" t="s">
         <v>14</v>
       </c>
       <c r="N64" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O64">
-        <v>0.10288534042497521</v>
+        <v>4.2741461576814244E-2</v>
       </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.45">
@@ -10607,19 +10607,19 @@
         <v>403</v>
       </c>
       <c r="I65" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J65">
-        <v>1.4450587276585119E-2</v>
+        <v>1.2227390903533171E-2</v>
       </c>
       <c r="M65" t="s">
         <v>14</v>
       </c>
       <c r="N65" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O65">
-        <v>9.1970761911925436E-2</v>
+        <v>4.25094581310137E-2</v>
       </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.45">
@@ -10639,19 +10639,19 @@
         <v>403</v>
       </c>
       <c r="I66" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J66">
-        <v>1.5132560773015169E-2</v>
+        <v>1.2276892115262681E-2</v>
       </c>
       <c r="M66" t="s">
         <v>14</v>
       </c>
       <c r="N66" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O66">
-        <v>8.7536548591387486E-2</v>
+        <v>4.0315912482569827E-2</v>
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.45">
@@ -10671,19 +10671,19 @@
         <v>403</v>
       </c>
       <c r="I67" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J67">
-        <v>1.4921139509972214E-2</v>
+        <v>1.3457422259792774E-2</v>
       </c>
       <c r="M67" t="s">
         <v>14</v>
       </c>
       <c r="N67" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O67">
-        <v>9.0659195324193531E-2</v>
+        <v>0.10288534042497521</v>
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.45">
@@ -10703,19 +10703,19 @@
         <v>403</v>
       </c>
       <c r="I68" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J68">
-        <v>1.4123351333024416E-2</v>
+        <v>1.406581172205827E-2</v>
       </c>
       <c r="M68" t="s">
         <v>14</v>
       </c>
       <c r="N68" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O68">
-        <v>6.9449770333054106E-2</v>
+        <v>9.1970761911925436E-2</v>
       </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.45">
@@ -10735,19 +10735,19 @@
         <v>403</v>
       </c>
       <c r="I69" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J69">
-        <v>1.2994324234036963E-2</v>
+        <v>1.4729626321189614E-2</v>
       </c>
       <c r="M69" t="s">
         <v>14</v>
       </c>
       <c r="N69" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O69">
-        <v>2.1863908934234733E-2</v>
+        <v>8.7536548591387486E-2</v>
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.45">
@@ -10767,19 +10767,19 @@
         <v>403</v>
       </c>
       <c r="I70" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J70">
-        <v>1.1670938341360283E-2</v>
+        <v>1.4523834568710422E-2</v>
       </c>
       <c r="M70" t="s">
         <v>14</v>
       </c>
       <c r="N70" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O70">
-        <v>2.5608840626874629E-2</v>
+        <v>9.0659195324193531E-2</v>
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.45">
@@ -10799,19 +10799,19 @@
         <v>403</v>
       </c>
       <c r="I71" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J71">
-        <v>9.0548077562794416E-3</v>
+        <v>1.3747289084693E-2</v>
       </c>
       <c r="M71" t="s">
         <v>14</v>
       </c>
       <c r="N71" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O71">
-        <v>4.3001634226724095E-2</v>
+        <v>6.9449770333054106E-2</v>
       </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.45">
@@ -10831,19 +10831,19 @@
         <v>403</v>
       </c>
       <c r="I72" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J72">
-        <v>7.8675110565372859E-3</v>
+        <v>1.2648324572074798E-2</v>
       </c>
       <c r="M72" t="s">
         <v>14</v>
       </c>
       <c r="N72" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O72">
-        <v>3.9576041146351049E-2</v>
+        <v>2.1863908934234733E-2</v>
       </c>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.45">
@@ -10863,19 +10863,19 @@
         <v>403</v>
       </c>
       <c r="I73" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J73">
-        <v>7.5977350307960843E-5</v>
+        <v>1.1360176454234629E-2</v>
       </c>
       <c r="M73" t="s">
         <v>14</v>
       </c>
       <c r="N73" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>2.5608840626874629E-2</v>
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.45">
@@ -10895,19 +10895,19 @@
         <v>403</v>
       </c>
       <c r="I74" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J74">
-        <v>7.5977350307960843E-5</v>
+        <v>8.8137055360809728E-3</v>
       </c>
       <c r="M74" t="s">
         <v>14</v>
       </c>
       <c r="N74" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>4.3001634226724095E-2</v>
       </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.45">
@@ -10927,19 +10927,19 @@
         <v>403</v>
       </c>
       <c r="I75" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J75">
-        <v>8.0831640952120425E-5</v>
+        <v>7.6580229664282842E-3</v>
       </c>
       <c r="M75" t="s">
         <v>14</v>
       </c>
       <c r="N75" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>3.9576041146351049E-2</v>
       </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.45">
@@ -10959,16 +10959,16 @@
         <v>403</v>
       </c>
       <c r="I76" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J76">
-        <v>1.0320122656979616E-4</v>
+        <v>7.4782946915671569E-5</v>
       </c>
       <c r="M76" t="s">
         <v>14</v>
       </c>
       <c r="N76" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="O76">
         <v>0</v>
@@ -10991,16 +10991,16 @@
         <v>403</v>
       </c>
       <c r="I77" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J77">
-        <v>1.2104255598956186E-4</v>
+        <v>7.3954302625767629E-5</v>
       </c>
       <c r="M77" t="s">
         <v>14</v>
       </c>
       <c r="N77" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O77">
         <v>0</v>
@@ -11023,16 +11023,16 @@
         <v>403</v>
       </c>
       <c r="I78" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J78">
-        <v>1.4238573686904457E-4</v>
+        <v>7.3954302625767629E-5</v>
       </c>
       <c r="M78" t="s">
         <v>14</v>
       </c>
       <c r="N78" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -11055,16 +11055,16 @@
         <v>403</v>
       </c>
       <c r="I79" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J79">
-        <v>1.5659238598062116E-4</v>
+        <v>7.8679338151177303E-5</v>
       </c>
       <c r="M79" t="s">
         <v>14</v>
       </c>
       <c r="N79" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O79">
         <v>0</v>
@@ -11087,16 +11087,16 @@
         <v>403</v>
       </c>
       <c r="I80" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J80">
-        <v>1.5930933969936714E-4</v>
+        <v>1.0045328917312115E-4</v>
       </c>
       <c r="M80" t="s">
         <v>14</v>
       </c>
       <c r="N80" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O80">
         <v>0</v>
@@ -11119,16 +11119,16 @@
         <v>403</v>
       </c>
       <c r="I81" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J81">
-        <v>1.4832077132577207E-4</v>
+        <v>1.1781955780195899E-4</v>
       </c>
       <c r="M81" t="s">
         <v>14</v>
       </c>
       <c r="N81" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O81">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>403</v>
       </c>
       <c r="I82" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J82">
-        <v>1.4665437304494115E-4</v>
+        <v>1.385944341481321E-4</v>
       </c>
       <c r="M82" t="s">
         <v>14</v>
       </c>
       <c r="N82" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O82">
         <v>0</v>
@@ -11183,16 +11183,16 @@
         <v>403</v>
       </c>
       <c r="I83" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J83">
-        <v>1.470347465655656E-4</v>
+        <v>1.5242280304277012E-4</v>
       </c>
       <c r="M83" t="s">
         <v>14</v>
       </c>
       <c r="N83" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O83">
         <v>0</v>
@@ -11215,16 +11215,16 @@
         <v>403</v>
       </c>
       <c r="I84" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J84">
-        <v>1.470347465655656E-4</v>
+        <v>1.5506741247863377E-4</v>
       </c>
       <c r="M84" t="s">
         <v>14</v>
       </c>
       <c r="N84" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O84">
         <v>0</v>
@@ -11247,16 +11247,16 @@
         <v>403</v>
       </c>
       <c r="I85" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J85">
-        <v>1.4679323956834378E-4</v>
+        <v>1.4437143653802978E-4</v>
       </c>
       <c r="M85" t="s">
         <v>14</v>
       </c>
       <c r="N85" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="O85">
         <v>0</v>
@@ -11279,16 +11279,16 @@
         <v>403</v>
       </c>
       <c r="I86" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J86">
-        <v>1.4679323956834375E-4</v>
+        <v>1.4274940941736675E-4</v>
       </c>
       <c r="M86" t="s">
         <v>14</v>
       </c>
       <c r="N86" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O86">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>403</v>
       </c>
       <c r="I87" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J87">
-        <v>1.5999763464144949E-4</v>
+        <v>1.4311965473838765E-4</v>
       </c>
       <c r="M87" t="s">
         <v>14</v>
       </c>
       <c r="N87" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O87">
         <v>0</v>
@@ -11343,16 +11343,16 @@
         <v>403</v>
       </c>
       <c r="I88" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J88">
-        <v>1.6763529342859112E-4</v>
+        <v>1.4311965473838765E-4</v>
       </c>
       <c r="M88" t="s">
         <v>14</v>
       </c>
       <c r="N88" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="O88">
         <v>0</v>
@@ -11375,16 +11375,16 @@
         <v>403</v>
       </c>
       <c r="I89" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J89">
-        <v>1.7350391346108261E-4</v>
+        <v>1.4288457834408865E-4</v>
       </c>
       <c r="M89" t="s">
         <v>14</v>
       </c>
       <c r="N89" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="O89">
         <v>0</v>
@@ -11407,16 +11407,16 @@
         <v>403</v>
       </c>
       <c r="I90" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="J90">
-        <v>1.7805632035871485E-4</v>
+        <v>1.4288457834408868E-4</v>
       </c>
       <c r="M90" t="s">
         <v>14</v>
       </c>
       <c r="N90" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="O90">
         <v>0</v>
@@ -11439,16 +11439,16 @@
         <v>403</v>
       </c>
       <c r="I91" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J91">
-        <v>1.6418174336831838E-4</v>
+        <v>1.5573738020238588E-4</v>
       </c>
       <c r="M91" t="s">
         <v>14</v>
       </c>
       <c r="N91" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="O91">
         <v>0</v>
@@ -11471,16 +11471,16 @@
         <v>403</v>
       </c>
       <c r="I92" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J92">
-        <v>1.4512080361258229E-4</v>
+        <v>1.6317167117209142E-4</v>
       </c>
       <c r="M92" t="s">
         <v>14</v>
       </c>
       <c r="N92" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O92">
         <v>0</v>
@@ -11503,16 +11503,16 @@
         <v>403</v>
       </c>
       <c r="I93" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J93">
-        <v>1.2863191337725909E-4</v>
+        <v>1.6888402755355683E-4</v>
       </c>
       <c r="M93" t="s">
         <v>14</v>
       </c>
       <c r="N93" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="O93">
         <v>0</v>
@@ -11535,16 +11535,16 @@
         <v>403</v>
       </c>
       <c r="I94" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J94">
-        <v>1.0008578630563402E-4</v>
+        <v>1.7331521758609278E-4</v>
       </c>
       <c r="M94" t="s">
         <v>14</v>
       </c>
       <c r="N94" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="O94">
         <v>0</v>
@@ -11567,16 +11567,16 @@
         <v>403</v>
       </c>
       <c r="I95" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J95">
-        <v>8.6084418141696125E-5</v>
+        <v>1.5981007873361588E-4</v>
       </c>
       <c r="M95" t="s">
         <v>14</v>
       </c>
       <c r="N95" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="O95">
         <v>0</v>
@@ -11599,19 +11599,19 @@
         <v>403</v>
       </c>
       <c r="I96" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J96">
-        <v>6.3807955792215968E-3</v>
+        <v>1.4125667431356818E-4</v>
       </c>
       <c r="M96" t="s">
         <v>14</v>
       </c>
       <c r="N96" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="O96">
-        <v>4.9194525189707461E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.45">
@@ -11631,19 +11631,19 @@
         <v>403</v>
       </c>
       <c r="I97" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J97">
-        <v>6.3816891551113173E-3</v>
+        <v>1.2520683349280472E-4</v>
       </c>
       <c r="M97" t="s">
         <v>14</v>
       </c>
       <c r="N97" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="O97">
-        <v>5.2273029713296726E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.45">
@@ -11663,19 +11663,19 @@
         <v>403</v>
       </c>
       <c r="I98" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="J98">
-        <v>6.5074176978650233E-3</v>
+        <v>9.7420803686664188E-5</v>
       </c>
       <c r="M98" t="s">
         <v>14</v>
       </c>
       <c r="N98" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="O98">
-        <v>4.3172995848518303E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.45">
@@ -11695,19 +11695,19 @@
         <v>403</v>
       </c>
       <c r="I99" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J99">
-        <v>7.3564959233478142E-3</v>
+        <v>8.3792249727180328E-5</v>
       </c>
       <c r="M99" t="s">
         <v>14</v>
       </c>
       <c r="N99" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="O99">
-        <v>5.4702813642617754E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.45">
@@ -11727,19 +11727,19 @@
         <v>403</v>
       </c>
       <c r="I100" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="J100">
-        <v>8.2517865127490087E-3</v>
+        <v>6.3589923665754219E-3</v>
       </c>
       <c r="M100" t="s">
         <v>14</v>
       </c>
       <c r="N100" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="O100">
-        <v>4.9261580798042992E-2</v>
+        <v>5.0346739616064617E-2</v>
       </c>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.45">
@@ -11759,19 +11759,19 @@
         <v>403</v>
       </c>
       <c r="I101" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="J101">
-        <v>9.8642079797008255E-3</v>
+        <v>6.2108942381670588E-3</v>
       </c>
       <c r="M101" t="s">
         <v>14</v>
       </c>
       <c r="N101" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="O101">
-        <v>5.6448512534063022E-2</v>
+        <v>4.9194525189707461E-2</v>
       </c>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.45">
@@ -11791,19 +11791,19 @@
         <v>403</v>
       </c>
       <c r="I102" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="J102">
-        <v>1.1068446395298097E-2</v>
+        <v>6.2117640208259649E-3</v>
       </c>
       <c r="M102" t="s">
         <v>14</v>
       </c>
       <c r="N102" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="O102">
-        <v>8.8328810114171263E-2</v>
+        <v>5.2273029713296726E-2</v>
       </c>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.45">
@@ -11823,19 +11823,19 @@
         <v>403</v>
       </c>
       <c r="I103" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="J103">
-        <v>1.167748477856714E-2</v>
+        <v>6.3341447916980187E-3</v>
       </c>
       <c r="M103" t="s">
         <v>14</v>
       </c>
       <c r="N103" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="O103">
-        <v>5.4681912208462746E-2</v>
+        <v>4.3172995848518303E-2</v>
       </c>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.45">
@@ -11855,19 +11855,19 @@
         <v>403</v>
       </c>
       <c r="I104" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J104">
-        <v>1.179597414907912E-2</v>
+        <v>7.1606146249546905E-3</v>
       </c>
       <c r="M104" t="s">
         <v>14</v>
       </c>
       <c r="N104" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="O104">
-        <v>8.0439931230285255E-2</v>
+        <v>5.4702813642617754E-2</v>
       </c>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.45">
@@ -11887,19 +11887,19 @@
         <v>403</v>
       </c>
       <c r="I105" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J105">
-        <v>1.1961032106330408E-2</v>
+        <v>8.0320663262604709E-3</v>
       </c>
       <c r="M105" t="s">
         <v>14</v>
       </c>
       <c r="N105" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="O105">
-        <v>0.1260280319703464</v>
+        <v>4.9261580798042992E-2</v>
       </c>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.45">
@@ -11919,19 +11919,19 @@
         <v>403</v>
       </c>
       <c r="I106" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J106">
-        <v>1.1967498456181024E-2</v>
+        <v>9.6015538727976715E-3</v>
       </c>
       <c r="M106" t="s">
         <v>14</v>
       </c>
       <c r="N106" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="O106">
-        <v>0.11473959455171623</v>
+        <v>5.6448512534063022E-2</v>
       </c>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.45">
@@ -11951,19 +11951,19 @@
         <v>403</v>
       </c>
       <c r="I107" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="J107">
-        <v>1.1942025505649047E-2</v>
+        <v>1.0773727051510433E-2</v>
       </c>
       <c r="M107" t="s">
         <v>14</v>
       </c>
       <c r="N107" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="O107">
-        <v>8.423315339508286E-2</v>
+        <v>8.8328810114171263E-2</v>
       </c>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.45">
@@ -11983,19 +11983,19 @@
         <v>403</v>
       </c>
       <c r="I108" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J108">
-        <v>1.1882367239660314E-2</v>
+        <v>1.1366548579563483E-2</v>
       </c>
       <c r="M108" t="s">
         <v>14</v>
       </c>
       <c r="N108" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="O108">
-        <v>8.0538072395392346E-2</v>
+        <v>5.4681912208462746E-2</v>
       </c>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.45">
@@ -12015,19 +12015,19 @@
         <v>403</v>
       </c>
       <c r="I109" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="J109">
-        <v>1.1854231674483965E-2</v>
+        <v>1.1481882935516424E-2</v>
       </c>
       <c r="M109" t="s">
         <v>14</v>
       </c>
       <c r="N109" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="O109">
-        <v>6.7178221956623929E-2</v>
+        <v>8.0439931230285255E-2</v>
       </c>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.45">
@@ -12047,19 +12047,19 @@
         <v>403</v>
       </c>
       <c r="I110" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J110">
-        <v>1.1793770397729471E-2</v>
+        <v>1.1642545897200068E-2</v>
       </c>
       <c r="M110" t="s">
         <v>14</v>
       </c>
       <c r="N110" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="O110">
-        <v>3.5602221019836788E-2</v>
+        <v>0.1260280319703464</v>
       </c>
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.45">
@@ -12079,19 +12079,19 @@
         <v>403</v>
       </c>
       <c r="I111" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J111">
-        <v>1.2015171937432621E-2</v>
+        <v>1.1648840067657422E-2</v>
       </c>
       <c r="M111" t="s">
         <v>14</v>
       </c>
       <c r="N111" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="O111">
-        <v>3.4771279698044388E-2</v>
+        <v>0.11473959455171623</v>
       </c>
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.45">
@@ -12111,19 +12111,19 @@
         <v>403</v>
       </c>
       <c r="I112" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J112">
-        <v>1.2061553356249081E-2</v>
+        <v>1.1624045384968739E-2</v>
       </c>
       <c r="M112" t="s">
         <v>14</v>
       </c>
       <c r="N112" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="O112">
-        <v>3.9538905430963833E-2</v>
+        <v>8.423315339508286E-2</v>
       </c>
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.45">
@@ -12143,19 +12143,19 @@
         <v>403</v>
       </c>
       <c r="I113" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="J113">
-        <v>1.2145048362863611E-2</v>
+        <v>1.1565975638667028E-2</v>
       </c>
       <c r="M113" t="s">
         <v>14</v>
       </c>
       <c r="N113" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="O113">
-        <v>3.7522271441881694E-2</v>
+        <v>8.0538072395392346E-2</v>
       </c>
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.45">
@@ -12175,19 +12175,19 @@
         <v>403</v>
       </c>
       <c r="I114" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J114">
-        <v>1.190904168750347E-2</v>
+        <v>1.1538589238731196E-2</v>
       </c>
       <c r="M114" t="s">
         <v>14</v>
       </c>
       <c r="N114" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="O114">
-        <v>3.2637564401988506E-2</v>
+        <v>6.7178221956623929E-2</v>
       </c>
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.45">
@@ -12207,19 +12207,19 @@
         <v>403</v>
       </c>
       <c r="I115" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J115">
-        <v>1.124836307055346E-2</v>
+        <v>1.1479737863418446E-2</v>
       </c>
       <c r="M115" t="s">
         <v>14</v>
       </c>
       <c r="N115" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O115">
-        <v>2.2352317463064875E-2</v>
+        <v>3.5602221019836788E-2</v>
       </c>
     </row>
     <row r="116" spans="2:15" x14ac:dyDescent="0.45">
@@ -12239,19 +12239,19 @@
         <v>403</v>
       </c>
       <c r="I116" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="J116">
-        <v>1.041032775251864E-2</v>
+        <v>1.1695244147892043E-2</v>
       </c>
       <c r="M116" t="s">
         <v>14</v>
       </c>
       <c r="N116" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="O116">
-        <v>1.2050125523289434E-2</v>
+        <v>3.4771279698044388E-2</v>
       </c>
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.45">
@@ -12271,19 +12271,19 @@
         <v>403</v>
       </c>
       <c r="I117" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J117">
-        <v>8.227231288806475E-3</v>
+        <v>1.1740390569417164E-2</v>
       </c>
       <c r="M117" t="s">
         <v>14</v>
       </c>
       <c r="N117" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="O117">
-        <v>4.8060682708018332E-2</v>
+        <v>3.9538905430963833E-2</v>
       </c>
     </row>
     <row r="118" spans="2:15" x14ac:dyDescent="0.45">
@@ -12303,19 +12303,19 @@
         <v>403</v>
       </c>
       <c r="I118" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="J118">
-        <v>7.2538312988287973E-3</v>
+        <v>1.1821662355836182E-2</v>
       </c>
       <c r="M118" t="s">
         <v>14</v>
       </c>
       <c r="N118" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="O118">
-        <v>5.2131062226991265E-2</v>
+        <v>3.7522271441881694E-2</v>
       </c>
     </row>
     <row r="119" spans="2:15" x14ac:dyDescent="0.45">
@@ -12335,19 +12335,19 @@
         <v>403</v>
       </c>
       <c r="I119" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="J119">
-        <v>7.1329968548723653E-5</v>
+        <v>1.1591939826417354E-2</v>
       </c>
       <c r="M119" t="s">
         <v>14</v>
       </c>
       <c r="N119" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="O119">
-        <v>0</v>
+        <v>3.2637564401988506E-2</v>
       </c>
     </row>
     <row r="120" spans="2:15" x14ac:dyDescent="0.45">
@@ -12367,19 +12367,19 @@
         <v>403</v>
       </c>
       <c r="I120" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J120">
-        <v>7.1329968548723653E-5</v>
+        <v>1.0948853088353324E-2</v>
       </c>
       <c r="M120" t="s">
         <v>14</v>
       </c>
       <c r="N120" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="O120">
-        <v>0</v>
+        <v>2.2352317463064875E-2</v>
       </c>
     </row>
     <row r="121" spans="2:15" x14ac:dyDescent="0.45">
@@ -12399,19 +12399,19 @@
         <v>403</v>
       </c>
       <c r="I121" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="J121">
-        <v>7.2881651005874163E-5</v>
+        <v>1.0133132123225974E-2</v>
       </c>
       <c r="M121" t="s">
         <v>14</v>
       </c>
       <c r="N121" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="O121">
-        <v>0</v>
+        <v>1.2050125523289434E-2</v>
       </c>
     </row>
     <row r="122" spans="2:15" x14ac:dyDescent="0.45">
@@ -12431,19 +12431,19 @@
         <v>403</v>
       </c>
       <c r="I122" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="J122">
-        <v>8.4105688701760587E-5</v>
+        <v>8.0081649338701218E-3</v>
       </c>
       <c r="M122" t="s">
         <v>14</v>
       </c>
       <c r="N122" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="O122">
-        <v>0</v>
+        <v>4.8060682708018332E-2</v>
       </c>
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.45">
@@ -12463,19 +12463,19 @@
         <v>403</v>
       </c>
       <c r="I123" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J123">
-        <v>9.5535007345285593E-5</v>
+        <v>7.0606836497381894E-3</v>
       </c>
       <c r="M123" t="s">
         <v>14</v>
       </c>
       <c r="N123" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="O123">
-        <v>0</v>
+        <v>5.2131062226991265E-2</v>
       </c>
     </row>
     <row r="124" spans="2:15" x14ac:dyDescent="0.45">
@@ -12495,16 +12495,16 @@
         <v>403</v>
       </c>
       <c r="I124" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="J124">
-        <v>1.1847213440643271E-4</v>
+        <v>7.1140847394261206E-5</v>
       </c>
       <c r="M124" t="s">
         <v>14</v>
       </c>
       <c r="N124" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="O124">
         <v>0</v>
@@ -12527,16 +12527,16 @@
         <v>403</v>
       </c>
       <c r="I125" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="J125">
-        <v>1.341097124765488E-4</v>
+        <v>6.9430666625736075E-5</v>
       </c>
       <c r="M125" t="s">
         <v>14</v>
       </c>
       <c r="N125" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="O125">
         <v>0</v>
@@ -12559,16 +12559,16 @@
         <v>403</v>
       </c>
       <c r="I126" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J126">
-        <v>1.3921758546779135E-4</v>
+        <v>6.9430666625736075E-5</v>
       </c>
       <c r="M126" t="s">
         <v>14</v>
       </c>
       <c r="N126" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="O126">
         <v>0</v>
@@ -12591,16 +12591,16 @@
         <v>403</v>
       </c>
       <c r="I127" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="J127">
-        <v>1.4006889763299845E-4</v>
+        <v>7.0941032459107082E-5</v>
       </c>
       <c r="M127" t="s">
         <v>14</v>
       </c>
       <c r="N127" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="O127">
         <v>0</v>
@@ -12623,16 +12623,16 @@
         <v>403</v>
       </c>
       <c r="I128" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="J128">
-        <v>1.4190435081188466E-4</v>
+        <v>8.1866207884152592E-5</v>
       </c>
       <c r="M128" t="s">
         <v>14</v>
       </c>
       <c r="N128" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="O128">
         <v>0</v>
@@ -12655,16 +12655,16 @@
         <v>403</v>
       </c>
       <c r="I129" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J129">
-        <v>1.4180774801299592E-4</v>
+        <v>9.2991198244352254E-5</v>
       </c>
       <c r="M129" t="s">
         <v>14</v>
       </c>
       <c r="N129" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="O129">
         <v>0</v>
@@ -12687,16 +12687,16 @@
         <v>403</v>
       </c>
       <c r="I130" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="J130">
-        <v>1.4180774801299592E-4</v>
+        <v>1.1531757879289871E-4</v>
       </c>
       <c r="M130" t="s">
         <v>14</v>
       </c>
       <c r="N130" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="O130">
         <v>0</v>
@@ -12719,16 +12719,16 @@
         <v>403</v>
       </c>
       <c r="I131" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="J131">
-        <v>1.4156624101577408E-4</v>
+        <v>1.3053877532375824E-4</v>
       </c>
       <c r="M131" t="s">
         <v>14</v>
       </c>
       <c r="N131" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="O131">
         <v>0</v>
@@ -12751,16 +12751,16 @@
         <v>403</v>
       </c>
       <c r="I132" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="J132">
-        <v>1.4050964790292836E-4</v>
+        <v>1.3551064106318185E-4</v>
       </c>
       <c r="M132" t="s">
         <v>14</v>
       </c>
       <c r="N132" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="O132">
         <v>0</v>
@@ -12783,16 +12783,16 @@
         <v>403</v>
       </c>
       <c r="I133" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="J133">
-        <v>1.3877683519786143E-4</v>
+        <v>1.363392853530858E-4</v>
       </c>
       <c r="M133" t="s">
         <v>14</v>
       </c>
       <c r="N133" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O133">
         <v>0</v>
@@ -12815,16 +12815,16 @@
         <v>403</v>
       </c>
       <c r="I134" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="J134">
-        <v>1.4099266189737214E-4</v>
+        <v>1.3812586594975812E-4</v>
       </c>
       <c r="M134" t="s">
         <v>14</v>
       </c>
       <c r="N134" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O134">
         <v>0</v>
@@ -12847,16 +12847,16 @@
         <v>403</v>
       </c>
       <c r="I135" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="J135">
-        <v>1.4099266189737211E-4</v>
+        <v>1.3803183539203852E-4</v>
       </c>
       <c r="M135" t="s">
         <v>14</v>
       </c>
       <c r="N135" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="O135">
         <v>0</v>
@@ -12879,16 +12879,16 @@
         <v>403</v>
       </c>
       <c r="I136" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="J136">
-        <v>1.4217604618375925E-4</v>
+        <v>1.3803183539203855E-4</v>
       </c>
       <c r="M136" t="s">
         <v>14</v>
       </c>
       <c r="N136" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="O136">
         <v>0</v>
@@ -12911,16 +12911,16 @@
         <v>403</v>
       </c>
       <c r="I137" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="J137">
-        <v>1.390304175449444E-4</v>
+        <v>1.3779675899773956E-4</v>
       </c>
       <c r="M137" t="s">
         <v>14</v>
       </c>
       <c r="N137" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="O137">
         <v>0</v>
@@ -12943,16 +12943,16 @@
         <v>403</v>
       </c>
       <c r="I138" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="J138">
-        <v>1.297565488516246E-4</v>
+        <v>1.3676829977268145E-4</v>
       </c>
       <c r="M138" t="s">
         <v>14</v>
       </c>
       <c r="N138" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="O138">
         <v>0</v>
@@ -12975,16 +12975,16 @@
         <v>403</v>
       </c>
       <c r="I139" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="J139">
-        <v>1.1852043580587707E-4</v>
+        <v>1.350816266435862E-4</v>
       </c>
       <c r="M139" t="s">
         <v>14</v>
       </c>
       <c r="N139" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="O139">
         <v>0</v>
@@ -13007,16 +13007,16 @@
         <v>403</v>
       </c>
       <c r="I140" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="J140">
-        <v>9.2208248458554317E-5</v>
+        <v>1.3723845256127944E-4</v>
       </c>
       <c r="M140" t="s">
         <v>14</v>
       </c>
       <c r="N140" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="O140">
         <v>0</v>
@@ -13039,16 +13039,16 @@
         <v>403</v>
       </c>
       <c r="I141" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="J141">
-        <v>8.1298169859056338E-5</v>
+        <v>1.3723845256127944E-4</v>
       </c>
       <c r="M141" t="s">
         <v>14</v>
       </c>
       <c r="N141" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="O141">
         <v>0</v>
@@ -13071,19 +13071,19 @@
         <v>403</v>
       </c>
       <c r="I142" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="J142">
-        <v>6.667007808647111E-3</v>
+        <v>1.3839032689334449E-4</v>
       </c>
       <c r="M142" t="s">
         <v>14</v>
       </c>
       <c r="N142" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="O142">
-        <v>4.8755576733235495E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="2:15" x14ac:dyDescent="0.45">
@@ -13103,19 +13103,19 @@
         <v>403</v>
       </c>
       <c r="I143" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="J143">
-        <v>6.6460510389631834E-3</v>
+        <v>1.3532845685760011E-4</v>
       </c>
       <c r="M143" t="s">
         <v>14</v>
       </c>
       <c r="N143" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="O143">
-        <v>4.997680155313855E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="2:15" x14ac:dyDescent="0.45">
@@ -13135,19 +13135,19 @@
         <v>403</v>
       </c>
       <c r="I144" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="J144">
-        <v>6.9951011020479527E-3</v>
+        <v>1.2630152331651899E-4</v>
       </c>
       <c r="M144" t="s">
         <v>14</v>
       </c>
       <c r="N144" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="O144">
-        <v>5.9114102971254967E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="2:15" x14ac:dyDescent="0.45">
@@ -13167,19 +13167,19 @@
         <v>403</v>
       </c>
       <c r="I145" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="J145">
-        <v>7.6722806845831472E-3</v>
+        <v>1.153645940717585E-4</v>
       </c>
       <c r="M145" t="s">
         <v>14</v>
       </c>
       <c r="N145" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="O145">
-        <v>4.3021492496764457E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="2:15" x14ac:dyDescent="0.45">
@@ -13199,19 +13199,19 @@
         <v>403</v>
       </c>
       <c r="I146" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="J146">
-        <v>8.4707994201975393E-3</v>
+        <v>8.9753020912883654E-5</v>
       </c>
       <c r="M146" t="s">
         <v>14</v>
       </c>
       <c r="N146" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="O146">
-        <v>4.4486648005044094E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="2:15" x14ac:dyDescent="0.45">
@@ -13231,19 +13231,19 @@
         <v>403</v>
       </c>
       <c r="I147" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J147">
-        <v>9.9693020365597979E-3</v>
+        <v>7.913344480042684E-5</v>
       </c>
       <c r="M147" t="s">
         <v>14</v>
       </c>
       <c r="N147" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="O147">
-        <v>6.5210853353315112E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="2:15" x14ac:dyDescent="0.45">
@@ -13263,19 +13263,19 @@
         <v>403</v>
       </c>
       <c r="I148" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="J148">
-        <v>1.106046687605779E-2</v>
+        <v>6.6313305954922887E-3</v>
       </c>
       <c r="M148" t="s">
         <v>14</v>
       </c>
       <c r="N148" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="O148">
-        <v>6.1205598785327942E-2</v>
+        <v>4.048949445055694E-2</v>
       </c>
     </row>
     <row r="149" spans="2:15" x14ac:dyDescent="0.45">
@@ -13295,19 +13295,19 @@
         <v>403</v>
       </c>
       <c r="I149" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="J149">
-        <v>1.1704572075323449E-2</v>
+        <v>6.4894854991722787E-3</v>
       </c>
       <c r="M149" t="s">
         <v>14</v>
       </c>
       <c r="N149" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="O149">
-        <v>4.7687010180879064E-2</v>
+        <v>4.8755576733235495E-2</v>
       </c>
     </row>
     <row r="150" spans="2:15" x14ac:dyDescent="0.45">
@@ -13327,19 +13327,19 @@
         <v>403</v>
       </c>
       <c r="I150" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="J150">
-        <v>1.2082596940399912E-2</v>
+        <v>6.4690867450569838E-3</v>
       </c>
       <c r="M150" t="s">
         <v>14</v>
       </c>
       <c r="N150" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="O150">
-        <v>6.1880223845987459E-2</v>
+        <v>4.997680155313855E-2</v>
       </c>
     </row>
     <row r="151" spans="2:15" x14ac:dyDescent="0.45">
@@ -13359,19 +13359,19 @@
         <v>403</v>
       </c>
       <c r="I151" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="J151">
-        <v>1.2534142573105643E-2</v>
+        <v>6.8088426577373132E-3</v>
       </c>
       <c r="M151" t="s">
         <v>14</v>
       </c>
       <c r="N151" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="O151">
-        <v>0.11075983284243685</v>
+        <v>5.9114102971254967E-2</v>
       </c>
     </row>
     <row r="152" spans="2:15" x14ac:dyDescent="0.45">
@@ -13391,19 +13391,19 @@
         <v>403</v>
       </c>
       <c r="I152" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="J152">
-        <v>1.2550818631263812E-2</v>
+        <v>7.4679909904418213E-3</v>
       </c>
       <c r="M152" t="s">
         <v>14</v>
       </c>
       <c r="N152" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="O152">
-        <v>0.12046130256972454</v>
+        <v>4.3021492496764457E-2</v>
       </c>
     </row>
     <row r="153" spans="2:15" x14ac:dyDescent="0.45">
@@ -13423,19 +13423,19 @@
         <v>403</v>
       </c>
       <c r="I153" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="J153">
-        <v>1.2549109969258468E-2</v>
+        <v>8.2452475805519978E-3</v>
       </c>
       <c r="M153" t="s">
         <v>14</v>
       </c>
       <c r="N153" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="O153">
-        <v>0.11631456000961982</v>
+        <v>4.4486648005044094E-2</v>
       </c>
     </row>
     <row r="154" spans="2:15" x14ac:dyDescent="0.45">
@@ -13455,19 +13455,19 @@
         <v>403</v>
       </c>
       <c r="I154" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="J154">
-        <v>1.237797207335212E-2</v>
+        <v>9.7038495918983642E-3</v>
       </c>
       <c r="M154" t="s">
         <v>14</v>
       </c>
       <c r="N154" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="O154">
-        <v>0.11954214609983005</v>
+        <v>6.5210853353315112E-2</v>
       </c>
     </row>
     <row r="155" spans="2:15" x14ac:dyDescent="0.45">
@@ -13487,19 +13487,19 @@
         <v>403</v>
       </c>
       <c r="I155" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="J155">
-        <v>1.2283277179741425E-2</v>
+        <v>1.0765960002800341E-2</v>
       </c>
       <c r="M155" t="s">
         <v>14</v>
       </c>
       <c r="N155" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="O155">
-        <v>0.10884005479146897</v>
+        <v>6.1205598785327942E-2</v>
       </c>
     </row>
     <row r="156" spans="2:15" x14ac:dyDescent="0.45">
@@ -13519,19 +13519,19 @@
         <v>403</v>
       </c>
       <c r="I156" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="J156">
-        <v>1.1787034639524858E-2</v>
+        <v>1.1392914623305602E-2</v>
       </c>
       <c r="M156" t="s">
         <v>14</v>
       </c>
       <c r="N156" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="O156">
-        <v>4.432470741361505E-2</v>
+        <v>4.7687010180879064E-2</v>
       </c>
     </row>
     <row r="157" spans="2:15" x14ac:dyDescent="0.45">
@@ -13551,19 +13551,19 @@
         <v>403</v>
       </c>
       <c r="I157" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="J157">
-        <v>1.1975247080134791E-2</v>
+        <v>1.1760873826391951E-2</v>
       </c>
       <c r="M157" t="s">
         <v>14</v>
       </c>
       <c r="N157" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="O157">
-        <v>4.5734911193593186E-2</v>
+        <v>6.1880223845987459E-2</v>
       </c>
     </row>
     <row r="158" spans="2:15" x14ac:dyDescent="0.45">
@@ -13583,19 +13583,19 @@
         <v>403</v>
       </c>
       <c r="I158" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="J158">
-        <v>1.1939824041317274E-2</v>
+        <v>1.2200396160812772E-2</v>
       </c>
       <c r="M158" t="s">
         <v>14</v>
       </c>
       <c r="N158" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="O158">
-        <v>3.6274174076943888E-2</v>
+        <v>0.11075983284243685</v>
       </c>
     </row>
     <row r="159" spans="2:15" x14ac:dyDescent="0.45">
@@ -13615,19 +13615,19 @@
         <v>403</v>
       </c>
       <c r="I159" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="J159">
-        <v>1.2029519740085476E-2</v>
+        <v>1.2216628185839117E-2</v>
       </c>
       <c r="M159" t="s">
         <v>14</v>
       </c>
       <c r="N159" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="O159">
-        <v>3.6182787688101126E-2</v>
+        <v>0.12046130256972454</v>
       </c>
     </row>
     <row r="160" spans="2:15" x14ac:dyDescent="0.45">
@@ -13647,19 +13647,19 @@
         <v>403</v>
       </c>
       <c r="I160" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="J160">
-        <v>1.1804048807479138E-2</v>
+        <v>1.2214965020349451E-2</v>
       </c>
       <c r="M160" t="s">
         <v>14</v>
       </c>
       <c r="N160" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="O160">
-        <v>3.3717720896820236E-2</v>
+        <v>0.11631456000961982</v>
       </c>
     </row>
     <row r="161" spans="2:15" x14ac:dyDescent="0.45">
@@ -13679,19 +13679,19 @@
         <v>403</v>
       </c>
       <c r="I161" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="J161">
-        <v>1.1101734384208077E-2</v>
+        <v>1.204838401043933E-2</v>
       </c>
       <c r="M161" t="s">
         <v>14</v>
       </c>
       <c r="N161" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="O161">
-        <v>2.682651824535065E-2</v>
+        <v>0.11954214609983005</v>
       </c>
     </row>
     <row r="162" spans="2:15" x14ac:dyDescent="0.45">
@@ -13711,19 +13711,19 @@
         <v>403</v>
       </c>
       <c r="I162" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="J162">
-        <v>1.0335807017868778E-2</v>
+        <v>1.1956210556234697E-2</v>
       </c>
       <c r="M162" t="s">
         <v>14</v>
       </c>
       <c r="N162" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="O162">
-        <v>2.3372704051448867E-2</v>
+        <v>0.10884005479146897</v>
       </c>
     </row>
     <row r="163" spans="2:15" x14ac:dyDescent="0.45">
@@ -13743,19 +13743,19 @@
         <v>403</v>
       </c>
       <c r="I163" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="J163">
-        <v>8.4917863782561186E-3</v>
+        <v>1.1473181458138993E-2</v>
       </c>
       <c r="M163" t="s">
         <v>14</v>
       </c>
       <c r="N163" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="O163">
-        <v>3.4445395809409751E-2</v>
+        <v>4.432470741361505E-2</v>
       </c>
     </row>
     <row r="164" spans="2:15" x14ac:dyDescent="0.45">
@@ -13775,19 +13775,19 @@
         <v>403</v>
       </c>
       <c r="I164" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J164">
-        <v>7.589033222640768E-3</v>
+        <v>1.1656382369126051E-2</v>
       </c>
       <c r="M164" t="s">
         <v>14</v>
       </c>
       <c r="N164" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="O164">
-        <v>4.7889598487210305E-2</v>
+        <v>4.5734911193593186E-2</v>
       </c>
     </row>
     <row r="165" spans="2:15" x14ac:dyDescent="0.45">
@@ -13807,19 +13807,19 @@
         <v>403</v>
       </c>
       <c r="I165" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="J165">
-        <v>7.5998792030174098E-5</v>
+        <v>1.1621902538992247E-2</v>
       </c>
       <c r="M165" t="s">
         <v>14</v>
       </c>
       <c r="N165" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="O165">
-        <v>0</v>
+        <v>3.6274174076943888E-2</v>
       </c>
     </row>
     <row r="166" spans="2:15" x14ac:dyDescent="0.45">
@@ -13839,19 +13839,19 @@
         <v>403</v>
       </c>
       <c r="I166" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="J166">
-        <v>7.5998792030174098E-5</v>
+        <v>1.1709209911834891E-2</v>
       </c>
       <c r="M166" t="s">
         <v>14</v>
       </c>
       <c r="N166" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="O166">
-        <v>0</v>
+        <v>3.6182787688101126E-2</v>
       </c>
     </row>
     <row r="167" spans="2:15" x14ac:dyDescent="0.45">
@@ -13871,19 +13871,19 @@
         <v>403</v>
       </c>
       <c r="I167" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="J167">
-        <v>8.124553154481924E-5</v>
+        <v>1.1489742590117355E-2</v>
       </c>
       <c r="M167" t="s">
         <v>14</v>
       </c>
       <c r="N167" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="O167">
-        <v>0</v>
+        <v>3.3717720896820236E-2</v>
       </c>
     </row>
     <row r="168" spans="2:15" x14ac:dyDescent="0.45">
@@ -13903,19 +13903,19 @@
         <v>403</v>
       </c>
       <c r="I168" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="J168">
-        <v>9.0151102067375708E-5</v>
+        <v>1.0806128681676181E-2</v>
       </c>
       <c r="M168" t="s">
         <v>14</v>
       </c>
       <c r="N168" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="O168">
-        <v>0</v>
+        <v>2.682651824535065E-2</v>
       </c>
     </row>
     <row r="169" spans="2:15" x14ac:dyDescent="0.45">
@@ -13935,19 +13935,19 @@
         <v>403</v>
       </c>
       <c r="I169" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="J169">
-        <v>1.0075929692034636E-4</v>
+        <v>1.0060595650976651E-2</v>
       </c>
       <c r="M169" t="s">
         <v>14</v>
       </c>
       <c r="N169" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="O169">
-        <v>0</v>
+        <v>2.3372704051448867E-2</v>
       </c>
     </row>
     <row r="170" spans="2:15" x14ac:dyDescent="0.45">
@@ -13967,19 +13967,19 @@
         <v>403</v>
       </c>
       <c r="I170" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="J170">
-        <v>1.2034551439504003E-4</v>
+        <v>8.2656757192165788E-3</v>
       </c>
       <c r="M170" t="s">
         <v>14</v>
       </c>
       <c r="N170" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="O170">
-        <v>0</v>
+        <v>3.4445395809409751E-2</v>
       </c>
     </row>
     <row r="171" spans="2:15" x14ac:dyDescent="0.45">
@@ -13999,19 +13999,19 @@
         <v>403</v>
       </c>
       <c r="I171" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="J171">
-        <v>1.3491442400244936E-4</v>
+        <v>7.3869601573269593E-3</v>
       </c>
       <c r="M171" t="s">
         <v>14</v>
       </c>
       <c r="N171" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="O171">
-        <v>0</v>
+        <v>4.7889598487210305E-2</v>
       </c>
     </row>
     <row r="172" spans="2:15" x14ac:dyDescent="0.45">
@@ -14031,16 +14031,16 @@
         <v>403</v>
       </c>
       <c r="I172" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="J172">
-        <v>1.3844646383681921E-4</v>
+        <v>7.4539356765906665E-5</v>
       </c>
       <c r="M172" t="s">
         <v>14</v>
       </c>
       <c r="N172" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="O172">
         <v>0</v>
@@ -14063,16 +14063,16 @@
         <v>403</v>
       </c>
       <c r="I173" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="J173">
-        <v>1.4427885781972738E-4</v>
+        <v>7.3975173419589069E-5</v>
       </c>
       <c r="M173" t="s">
         <v>14</v>
       </c>
       <c r="N173" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="O173">
         <v>0</v>
@@ -14095,16 +14095,16 @@
         <v>403</v>
       </c>
       <c r="I174" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="J174">
-        <v>1.4671807849166824E-4</v>
+        <v>7.3975173419589069E-5</v>
       </c>
       <c r="M174" t="s">
         <v>14</v>
       </c>
       <c r="N174" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="O174">
         <v>0</v>
@@ -14127,16 +14127,16 @@
         <v>403</v>
       </c>
       <c r="I175" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="J175">
-        <v>1.4662147569277951E-4</v>
+        <v>7.908220808573461E-5</v>
       </c>
       <c r="M175" t="s">
         <v>14</v>
       </c>
       <c r="N175" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="O175">
         <v>0</v>
@@ -14159,16 +14159,16 @@
         <v>403</v>
       </c>
       <c r="I176" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="J176">
-        <v>1.4662147569277951E-4</v>
+        <v>8.7750650125509828E-5</v>
       </c>
       <c r="M176" t="s">
         <v>14</v>
       </c>
       <c r="N176" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="O176">
         <v>0</v>
@@ -14191,16 +14191,16 @@
         <v>403</v>
       </c>
       <c r="I177" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="J177">
-        <v>1.449430020620875E-4</v>
+        <v>9.8076380745092925E-5</v>
       </c>
       <c r="M177" t="s">
         <v>14</v>
       </c>
       <c r="N177" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="O177">
         <v>0</v>
@@ -14223,16 +14223,16 @@
         <v>403</v>
       </c>
       <c r="I178" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="J178">
-        <v>1.4325245308153441E-4</v>
+        <v>1.1714107632274093E-4</v>
       </c>
       <c r="M178" t="s">
         <v>14</v>
       </c>
       <c r="N178" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="O178">
         <v>0</v>
@@ -14255,16 +14255,16 @@
         <v>403</v>
       </c>
       <c r="I179" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="J179">
-        <v>1.3786080936855618E-4</v>
+        <v>1.3132205980882747E-4</v>
       </c>
       <c r="M179" t="s">
         <v>14</v>
       </c>
       <c r="N179" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="O179">
         <v>0</v>
@@ -14287,16 +14287,16 @@
         <v>403</v>
       </c>
       <c r="I180" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="J180">
-        <v>1.4007663606806683E-4</v>
+        <v>1.3476005207545014E-4</v>
       </c>
       <c r="M180" t="s">
         <v>14</v>
       </c>
       <c r="N180" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="O180">
         <v>0</v>
@@ -14319,16 +14319,16 @@
         <v>403</v>
       </c>
       <c r="I181" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="J181">
-        <v>1.4043285888896907E-4</v>
+        <v>1.4043714699777074E-4</v>
       </c>
       <c r="M181" t="s">
         <v>14</v>
       </c>
       <c r="N181" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="O181">
         <v>0</v>
@@ -14351,16 +14351,16 @@
         <v>403</v>
       </c>
       <c r="I182" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="J182">
-        <v>1.4161624317535627E-4</v>
+        <v>1.4281141858019054E-4</v>
       </c>
       <c r="M182" t="s">
         <v>14</v>
       </c>
       <c r="N182" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="O182">
         <v>0</v>
@@ -14383,16 +14383,16 @@
         <v>403</v>
       </c>
       <c r="I183" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="J183">
-        <v>1.3781250796911183E-4</v>
+        <v>1.4271738802247092E-4</v>
       </c>
       <c r="M183" t="s">
         <v>14</v>
       </c>
       <c r="N183" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="O183">
         <v>0</v>
@@ -14415,16 +14415,16 @@
         <v>403</v>
       </c>
       <c r="I184" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="J184">
-        <v>1.2672733679662798E-4</v>
+        <v>1.4271738802247095E-4</v>
       </c>
       <c r="M184" t="s">
         <v>14</v>
       </c>
       <c r="N184" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="O184">
         <v>0</v>
@@ -14447,16 +14447,16 @@
         <v>403</v>
       </c>
       <c r="I185" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="J185">
-        <v>1.1780969092421039E-4</v>
+        <v>1.4108360708209295E-4</v>
       </c>
       <c r="M185" t="s">
         <v>14</v>
       </c>
       <c r="N185" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="O185">
         <v>0</v>
@@ -14479,16 +14479,16 @@
         <v>403</v>
       </c>
       <c r="I186" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J186">
-        <v>9.5198598309312798E-5</v>
+        <v>1.3943807232200003E-4</v>
       </c>
       <c r="M186" t="s">
         <v>14</v>
       </c>
       <c r="N186" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="O186">
         <v>0</v>
@@ -14511,16 +14511,16 @@
         <v>403</v>
       </c>
       <c r="I187" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="J187">
-        <v>8.361230011759359E-5</v>
+        <v>1.3418999181927512E-4</v>
       </c>
       <c r="M187" t="s">
         <v>14</v>
       </c>
       <c r="N187" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="O187">
         <v>0</v>
@@ -14540,13 +14540,22 @@
         <v>399</v>
       </c>
       <c r="H188" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I188" t="s">
-        <v>202</v>
+        <v>388</v>
       </c>
       <c r="J188">
-        <v>1.0643855364674226E-2</v>
+        <v>1.3634681773696831E-4</v>
+      </c>
+      <c r="M188" t="s">
+        <v>14</v>
+      </c>
+      <c r="N188" t="s">
+        <v>388</v>
+      </c>
+      <c r="O188">
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="2:15" x14ac:dyDescent="0.45">
@@ -14563,13 +14572,22 @@
         <v>399</v>
       </c>
       <c r="H189" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I189" t="s">
-        <v>205</v>
+        <v>389</v>
       </c>
       <c r="J189">
-        <v>1.0643723817996255E-2</v>
+        <v>1.3669355541855933E-4</v>
+      </c>
+      <c r="M189" t="s">
+        <v>14</v>
+      </c>
+      <c r="N189" t="s">
+        <v>389</v>
+      </c>
+      <c r="O189">
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="2:15" x14ac:dyDescent="0.45">
@@ -14586,13 +14604,22 @@
         <v>399</v>
       </c>
       <c r="H190" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I190" t="s">
-        <v>206</v>
+        <v>390</v>
       </c>
       <c r="J190">
-        <v>1.0657515077752835E-2</v>
+        <v>1.378454297506244E-4</v>
+      </c>
+      <c r="M190" t="s">
+        <v>14</v>
+      </c>
+      <c r="N190" t="s">
+        <v>390</v>
+      </c>
+      <c r="O190">
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="2:15" x14ac:dyDescent="0.45">
@@ -14609,13 +14636,22 @@
         <v>399</v>
       </c>
       <c r="H191" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I191" t="s">
-        <v>207</v>
+        <v>391</v>
       </c>
       <c r="J191">
-        <v>1.0708973319317755E-2</v>
+        <v>1.3414297654041528E-4</v>
+      </c>
+      <c r="M191" t="s">
+        <v>14</v>
+      </c>
+      <c r="N191" t="s">
+        <v>391</v>
+      </c>
+      <c r="O191">
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="2:15" x14ac:dyDescent="0.45">
@@ -14632,16 +14668,25 @@
         <v>399</v>
       </c>
       <c r="H192" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I192" t="s">
-        <v>208</v>
+        <v>392</v>
       </c>
       <c r="J192">
-        <v>1.0754619429311781E-2</v>
-      </c>
-    </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.45">
+        <v>1.2335297004209173E-4</v>
+      </c>
+      <c r="M192" t="s">
+        <v>14</v>
+      </c>
+      <c r="N192" t="s">
+        <v>392</v>
+      </c>
+      <c r="O192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B193">
         <v>1.1415525114155251E-4</v>
       </c>
@@ -14655,16 +14700,25 @@
         <v>399</v>
       </c>
       <c r="H193" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I193" t="s">
-        <v>209</v>
+        <v>393</v>
       </c>
       <c r="J193">
-        <v>1.0831574235924893E-2</v>
-      </c>
-    </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.45">
+        <v>1.1467277418260155E-4</v>
+      </c>
+      <c r="M193" t="s">
+        <v>14</v>
+      </c>
+      <c r="N193" t="s">
+        <v>393</v>
+      </c>
+      <c r="O193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B194">
         <v>1.1415525114155251E-4</v>
       </c>
@@ -14678,16 +14732,25 @@
         <v>399</v>
       </c>
       <c r="H194" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I194" t="s">
-        <v>210</v>
+        <v>394</v>
       </c>
       <c r="J194">
-        <v>1.0884982774443126E-2</v>
-      </c>
-    </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.45">
+        <v>9.2663746766358701E-5</v>
+      </c>
+      <c r="M194" t="s">
+        <v>14</v>
+      </c>
+      <c r="N194" t="s">
+        <v>394</v>
+      </c>
+      <c r="O194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B195">
         <v>1.1415525114155251E-4</v>
       </c>
@@ -14701,156 +14764,165 @@
         <v>399</v>
       </c>
       <c r="H195" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I195" t="s">
+        <v>395</v>
+      </c>
+      <c r="J195">
+        <v>8.1385956749864725E-5</v>
+      </c>
+      <c r="M195" t="s">
+        <v>14</v>
+      </c>
+      <c r="N195" t="s">
+        <v>395</v>
+      </c>
+      <c r="O195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H196" t="s">
+        <v>404</v>
+      </c>
+      <c r="I196" t="s">
+        <v>202</v>
+      </c>
+      <c r="J196">
+        <v>1.0213664506339244E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H197" t="s">
+        <v>404</v>
+      </c>
+      <c r="I197" t="s">
+        <v>205</v>
+      </c>
+      <c r="J197">
+        <v>1.020803206545778E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H198" t="s">
+        <v>404</v>
+      </c>
+      <c r="I198" t="s">
+        <v>206</v>
+      </c>
+      <c r="J198">
+        <v>1.0207905905090055E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H199" t="s">
+        <v>404</v>
+      </c>
+      <c r="I199" t="s">
+        <v>207</v>
+      </c>
+      <c r="J199">
+        <v>1.022113246792794E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H200" t="s">
+        <v>404</v>
+      </c>
+      <c r="I200" t="s">
+        <v>208</v>
+      </c>
+      <c r="J200">
+        <v>1.0270483700346051E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H201" t="s">
+        <v>404</v>
+      </c>
+      <c r="I201" t="s">
+        <v>209</v>
+      </c>
+      <c r="J201">
+        <v>1.0314260784731178E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H202" t="s">
+        <v>404</v>
+      </c>
+      <c r="I202" t="s">
+        <v>210</v>
+      </c>
+      <c r="J202">
+        <v>1.0388064599851112E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H203" t="s">
+        <v>404</v>
+      </c>
+      <c r="I203" t="s">
         <v>211</v>
       </c>
-      <c r="J195">
-        <v>1.0906066065897774E-2</v>
-      </c>
-    </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H196" t="s">
-        <v>404</v>
-      </c>
-      <c r="I196" t="s">
+      <c r="J203">
+        <v>1.043928627236395E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H204" t="s">
+        <v>404</v>
+      </c>
+      <c r="I204" t="s">
         <v>212</v>
       </c>
-      <c r="J196">
-        <v>1.0906624552017196E-2</v>
-      </c>
-    </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H197" t="s">
-        <v>404</v>
-      </c>
-      <c r="I197" t="s">
+      <c r="J204">
+        <v>1.045950628737174E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H205" t="s">
+        <v>404</v>
+      </c>
+      <c r="I205" t="s">
         <v>213</v>
       </c>
-      <c r="J197">
-        <v>1.0911022850430878E-2</v>
-      </c>
-    </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H198" t="s">
-        <v>404</v>
-      </c>
-      <c r="I198" t="s">
+      <c r="J205">
+        <v>1.0460041905718649E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H206" t="s">
+        <v>404</v>
+      </c>
+      <c r="I206" t="s">
         <v>214</v>
       </c>
-      <c r="J198">
-        <v>1.091155314797645E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H199" t="s">
-        <v>404</v>
-      </c>
-      <c r="I199" t="s">
+      <c r="J206">
+        <v>1.0464260111406536E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H207" t="s">
+        <v>404</v>
+      </c>
+      <c r="I207" t="s">
         <v>215</v>
       </c>
-      <c r="J199">
-        <v>1.0911540521844412E-2</v>
-      </c>
-    </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H200" t="s">
-        <v>404</v>
-      </c>
-      <c r="I200" t="s">
+      <c r="J207">
+        <v>1.0464768695388933E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H208" t="s">
+        <v>404</v>
+      </c>
+      <c r="I208" t="s">
         <v>216</v>
       </c>
-      <c r="J200">
-        <v>1.0908520233608674E-2</v>
-      </c>
-    </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H201" t="s">
-        <v>404</v>
-      </c>
-      <c r="I201" t="s">
-        <v>217</v>
-      </c>
-      <c r="J201">
-        <v>1.0907675163655099E-2</v>
-      </c>
-    </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H202" t="s">
-        <v>404</v>
-      </c>
-      <c r="I202" t="s">
-        <v>218</v>
-      </c>
-      <c r="J202">
-        <v>1.0912383242750165E-2</v>
-      </c>
-    </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H203" t="s">
-        <v>404</v>
-      </c>
-      <c r="I203" t="s">
-        <v>219</v>
-      </c>
-      <c r="J203">
-        <v>1.0924399796878046E-2</v>
-      </c>
-    </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H204" t="s">
-        <v>404</v>
-      </c>
-      <c r="I204" t="s">
-        <v>220</v>
-      </c>
-      <c r="J204">
-        <v>1.0931073441737259E-2</v>
-      </c>
-    </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H205" t="s">
-        <v>404</v>
-      </c>
-      <c r="I205" t="s">
-        <v>221</v>
-      </c>
-      <c r="J205">
-        <v>1.0936680031623822E-2</v>
-      </c>
-    </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H206" t="s">
-        <v>404</v>
-      </c>
-      <c r="I206" t="s">
-        <v>222</v>
-      </c>
-      <c r="J206">
-        <v>1.0923335384584194E-2</v>
-      </c>
-    </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H207" t="s">
-        <v>404</v>
-      </c>
-      <c r="I207" t="s">
-        <v>223</v>
-      </c>
-      <c r="J207">
-        <v>1.0890113388514975E-2</v>
-      </c>
-    </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H208" t="s">
-        <v>404</v>
-      </c>
-      <c r="I208" t="s">
-        <v>224</v>
-      </c>
       <c r="J208">
-        <v>1.0844333676426135E-2</v>
+        <v>1.0464756586246494E-2</v>
       </c>
     </row>
     <row r="209" spans="8:10" x14ac:dyDescent="0.45">
@@ -14858,10 +14930,10 @@
         <v>404</v>
       </c>
       <c r="I209" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="J209">
-        <v>1.0735144941983479E-2</v>
+        <v>1.0461859966732134E-2</v>
       </c>
     </row>
     <row r="210" spans="8:10" x14ac:dyDescent="0.45">
@@ -14869,10 +14941,10 @@
         <v>404</v>
       </c>
       <c r="I210" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="J210">
-        <v>1.0686351988802363E-2</v>
+        <v>1.0461049499012677E-2</v>
       </c>
     </row>
     <row r="211" spans="8:10" x14ac:dyDescent="0.45">
@@ -14880,10 +14952,10 @@
         <v>404</v>
       </c>
       <c r="I211" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="J211">
-        <v>1.170838494609598E-4</v>
+        <v>1.0465564801102242E-2</v>
       </c>
     </row>
     <row r="212" spans="8:10" x14ac:dyDescent="0.45">
@@ -14891,10 +14963,10 @@
         <v>404</v>
       </c>
       <c r="I212" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="J212">
-        <v>1.170838494609598E-4</v>
+        <v>1.0477089325407677E-2</v>
       </c>
     </row>
     <row r="213" spans="8:10" x14ac:dyDescent="0.45">
@@ -14902,10 +14974,10 @@
         <v>404</v>
       </c>
       <c r="I213" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="J213">
-        <v>1.1718045405259485E-4</v>
+        <v>1.048348971120608E-2</v>
       </c>
     </row>
     <row r="214" spans="8:10" x14ac:dyDescent="0.45">
@@ -14913,10 +14985,10 @@
         <v>404</v>
       </c>
       <c r="I214" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="J214">
-        <v>1.1773512296930792E-4</v>
+        <v>1.048886673366449E-2</v>
       </c>
     </row>
     <row r="215" spans="8:10" x14ac:dyDescent="0.45">
@@ -14924,10 +14996,10 @@
         <v>404</v>
       </c>
       <c r="I215" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="J215">
-        <v>1.1835938242771555E-4</v>
+        <v>1.0476068496539355E-2</v>
       </c>
     </row>
     <row r="216" spans="8:10" x14ac:dyDescent="0.45">
@@ -14935,10 +15007,10 @@
         <v>404</v>
       </c>
       <c r="I216" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="J216">
-        <v>1.194185093639697E-4</v>
+        <v>1.0444206808313242E-2</v>
       </c>
     </row>
     <row r="217" spans="8:10" x14ac:dyDescent="0.45">
@@ -14946,10 +15018,10 @@
         <v>404</v>
       </c>
       <c r="I217" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="J217">
-        <v>1.2013731799716909E-4</v>
+        <v>1.0400301592304642E-2</v>
       </c>
     </row>
     <row r="218" spans="8:10" x14ac:dyDescent="0.45">
@@ -14957,10 +15029,10 @@
         <v>404</v>
       </c>
       <c r="I218" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="J218">
-        <v>1.2038191260152167E-4</v>
+        <v>1.0295583699756363E-2</v>
       </c>
     </row>
     <row r="219" spans="8:10" x14ac:dyDescent="0.45">
@@ -14968,10 +15040,10 @@
         <v>404</v>
       </c>
       <c r="I219" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="J219">
-        <v>1.2022423276654288E-4</v>
+        <v>1.0248788622824532E-2</v>
       </c>
     </row>
     <row r="220" spans="8:10" x14ac:dyDescent="0.45">
@@ -14979,10 +15051,10 @@
         <v>404</v>
       </c>
       <c r="I220" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="J220">
-        <v>1.1970333141225542E-4</v>
+        <v>1.1235703849225056E-4</v>
       </c>
     </row>
     <row r="221" spans="8:10" x14ac:dyDescent="0.45">
@@ -14990,10 +15062,10 @@
         <v>404</v>
       </c>
       <c r="I221" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="J221">
-        <v>1.1969833968563599E-4</v>
+        <v>1.1228973418893226E-4</v>
       </c>
     </row>
     <row r="222" spans="8:10" x14ac:dyDescent="0.45">
@@ -15001,10 +15073,10 @@
         <v>404</v>
       </c>
       <c r="I222" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="J222">
-        <v>1.1982724368480857E-4</v>
+        <v>1.1228973418893226E-4</v>
       </c>
     </row>
     <row r="223" spans="8:10" x14ac:dyDescent="0.45">
@@ -15012,10 +15084,10 @@
         <v>404</v>
       </c>
       <c r="I223" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="J223">
-        <v>1.197902461816292E-4</v>
+        <v>1.1238238320898132E-4</v>
       </c>
     </row>
     <row r="224" spans="8:10" x14ac:dyDescent="0.45">
@@ -15023,10 +15095,10 @@
         <v>404</v>
       </c>
       <c r="I224" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="J224">
-        <v>1.1983928255489074E-4</v>
+        <v>1.1291434065236332E-4</v>
       </c>
     </row>
     <row r="225" spans="8:10" x14ac:dyDescent="0.45">
@@ -15034,10 +15106,10 @@
         <v>404</v>
       </c>
       <c r="I225" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="J225">
-        <v>1.2034197878856614E-4</v>
+        <v>1.1351303918313628E-4</v>
       </c>
     </row>
     <row r="226" spans="8:10" x14ac:dyDescent="0.45">
@@ -15045,10 +15117,10 @@
         <v>404</v>
       </c>
       <c r="I226" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="J226">
-        <v>1.2048527070564183E-4</v>
+        <v>1.1452879910811187E-4</v>
       </c>
     </row>
     <row r="227" spans="8:10" x14ac:dyDescent="0.45">
@@ -15056,10 +15128,10 @@
         <v>404</v>
       </c>
       <c r="I227" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="J227">
-        <v>1.204682401089402E-4</v>
+        <v>1.1521817540318817E-4</v>
       </c>
     </row>
     <row r="228" spans="8:10" x14ac:dyDescent="0.45">
@@ -15067,10 +15139,10 @@
         <v>404</v>
       </c>
       <c r="I228" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="J228">
-        <v>1.2052579178055258E-4</v>
+        <v>1.1545275483692942E-4</v>
       </c>
     </row>
     <row r="229" spans="8:10" x14ac:dyDescent="0.45">
@@ -15078,10 +15150,10 @@
         <v>404</v>
       </c>
       <c r="I229" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="J229">
-        <v>1.2037310367219323E-4</v>
+        <v>1.1530153136043597E-4</v>
       </c>
     </row>
     <row r="230" spans="8:10" x14ac:dyDescent="0.45">
@@ -15089,10 +15161,10 @@
         <v>404</v>
       </c>
       <c r="I230" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="J230">
-        <v>1.1988450172544333E-4</v>
+        <v>1.1480195883287658E-4</v>
       </c>
     </row>
     <row r="231" spans="8:10" x14ac:dyDescent="0.45">
@@ -15100,10 +15172,10 @@
         <v>404</v>
       </c>
       <c r="I231" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="J231">
-        <v>1.1934069715490197E-4</v>
+        <v>1.1479717149749412E-4</v>
       </c>
     </row>
     <row r="232" spans="8:10" x14ac:dyDescent="0.45">
@@ -15111,10 +15183,10 @@
         <v>404</v>
       </c>
       <c r="I232" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="J232">
-        <v>1.180816075228926E-4</v>
+        <v>1.1492079739354741E-4</v>
       </c>
     </row>
     <row r="233" spans="8:10" x14ac:dyDescent="0.45">
@@ -15122,10 +15194,10 @@
         <v>404</v>
       </c>
       <c r="I233" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="J233">
-        <v>1.1755630170394092E-4</v>
+        <v>1.1488531479012437E-4</v>
       </c>
     </row>
     <row r="234" spans="8:10" x14ac:dyDescent="0.45">
@@ -15133,10 +15205,10 @@
         <v>404</v>
       </c>
       <c r="I234" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="J234">
-        <v>1.0613550912176731E-2</v>
+        <v>1.1493234332005808E-4</v>
       </c>
     </row>
     <row r="235" spans="8:10" x14ac:dyDescent="0.45">
@@ -15144,10 +15216,10 @@
         <v>404</v>
       </c>
       <c r="I235" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="J235">
-        <v>1.0614568049883187E-2</v>
+        <v>1.1541445615386962E-4</v>
       </c>
     </row>
     <row r="236" spans="8:10" x14ac:dyDescent="0.45">
@@ -15155,10 +15227,10 @@
         <v>404</v>
       </c>
       <c r="I236" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="J236">
-        <v>1.0631979192331793E-2</v>
+        <v>1.15551880840143E-4</v>
       </c>
     </row>
     <row r="237" spans="8:10" x14ac:dyDescent="0.45">
@@ -15166,10 +15238,10 @@
         <v>404</v>
       </c>
       <c r="I237" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J237">
-        <v>1.0710137885953121E-2</v>
+        <v>1.1553554757824984E-4</v>
       </c>
     </row>
     <row r="238" spans="8:10" x14ac:dyDescent="0.45">
@@ -15177,10 +15249,10 @@
         <v>404</v>
       </c>
       <c r="I238" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="J238">
-        <v>1.0777544987698132E-2</v>
+        <v>1.1559074273913015E-4</v>
       </c>
     </row>
     <row r="239" spans="8:10" x14ac:dyDescent="0.45">
@@ -15188,10 +15260,10 @@
         <v>404</v>
       </c>
       <c r="I239" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="J239">
-        <v>1.087197612283688E-2</v>
+        <v>1.1544430659801916E-4</v>
       </c>
     </row>
     <row r="240" spans="8:10" x14ac:dyDescent="0.45">
@@ -15199,10 +15271,10 @@
         <v>404</v>
       </c>
       <c r="I240" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="J240">
-        <v>1.0931386772168523E-2</v>
+        <v>1.1497571094646403E-4</v>
       </c>
     </row>
     <row r="241" spans="8:10" x14ac:dyDescent="0.45">
@@ -15210,10 +15282,10 @@
         <v>404</v>
       </c>
       <c r="I241" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="J241">
-        <v>1.0940240039774566E-2</v>
+        <v>1.14454172997738E-4</v>
       </c>
     </row>
     <row r="242" spans="8:10" x14ac:dyDescent="0.45">
@@ -15221,10 +15293,10 @@
         <v>404</v>
       </c>
       <c r="I242" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="J242">
-        <v>1.0895949917635163E-2</v>
+        <v>1.1324663804949977E-4</v>
       </c>
     </row>
     <row r="243" spans="8:10" x14ac:dyDescent="0.45">
@@ -15232,10 +15304,10 @@
         <v>404</v>
       </c>
       <c r="I243" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="J243">
-        <v>1.0884580526181943E-2</v>
+        <v>1.1274284140248527E-4</v>
       </c>
     </row>
     <row r="244" spans="8:10" x14ac:dyDescent="0.45">
@@ -15243,10 +15315,10 @@
         <v>404</v>
       </c>
       <c r="I244" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="J244">
-        <v>1.0886271546982023E-2</v>
+        <v>1.0182397599238672E-2</v>
       </c>
     </row>
     <row r="245" spans="8:10" x14ac:dyDescent="0.45">
@@ -15254,10 +15326,10 @@
         <v>404</v>
       </c>
       <c r="I245" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="J245">
-        <v>1.0886110049944334E-2</v>
+        <v>1.0178968459065001E-2</v>
       </c>
     </row>
     <row r="246" spans="8:10" x14ac:dyDescent="0.45">
@@ -15265,10 +15337,10 @@
         <v>404</v>
       </c>
       <c r="I246" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="J246">
-        <v>1.0885346022140582E-2</v>
+        <v>1.0179943949051173E-2</v>
       </c>
     </row>
     <row r="247" spans="8:10" x14ac:dyDescent="0.45">
@@ -15276,10 +15348,10 @@
         <v>404</v>
       </c>
       <c r="I247" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="J247">
-        <v>1.0887819275865027E-2</v>
+        <v>1.0196642174865243E-2</v>
       </c>
     </row>
     <row r="248" spans="8:10" x14ac:dyDescent="0.45">
@@ -15287,10 +15359,10 @@
         <v>404</v>
       </c>
       <c r="I248" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="J248">
-        <v>1.0946802692124242E-2</v>
+        <v>1.0271600582636244E-2</v>
       </c>
     </row>
     <row r="249" spans="8:10" x14ac:dyDescent="0.45">
@@ -15298,10 +15370,10 @@
         <v>404</v>
       </c>
       <c r="I249" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="J249">
-        <v>1.0977199958188811E-2</v>
+        <v>1.0336247633209323E-2</v>
       </c>
     </row>
     <row r="250" spans="8:10" x14ac:dyDescent="0.45">
@@ -15309,10 +15381,10 @@
         <v>404</v>
       </c>
       <c r="I250" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="J250">
-        <v>1.1010366458003261E-2</v>
+        <v>1.0426812191111263E-2</v>
       </c>
     </row>
     <row r="251" spans="8:10" x14ac:dyDescent="0.45">
@@ -15320,10 +15392,10 @@
         <v>404</v>
       </c>
       <c r="I251" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="J251">
-        <v>1.1000084382060146E-2</v>
+        <v>1.0483790212009582E-2</v>
       </c>
     </row>
     <row r="252" spans="8:10" x14ac:dyDescent="0.45">
@@ -15331,10 +15403,10 @@
         <v>404</v>
       </c>
       <c r="I252" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="J252">
-        <v>1.0961285452833104E-2</v>
+        <v>1.0492280973722345E-2</v>
       </c>
     </row>
     <row r="253" spans="8:10" x14ac:dyDescent="0.45">
@@ -15342,10 +15414,10 @@
         <v>404</v>
       </c>
       <c r="I253" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="J253">
-        <v>1.0906377340912194E-2</v>
+        <v>1.0449804354913468E-2</v>
       </c>
     </row>
     <row r="254" spans="8:10" x14ac:dyDescent="0.45">
@@ -15353,10 +15425,10 @@
         <v>404</v>
       </c>
       <c r="I254" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="J254">
-        <v>1.084201695419091E-2</v>
+        <v>1.0438900494559974E-2</v>
       </c>
     </row>
     <row r="255" spans="8:10" x14ac:dyDescent="0.45">
@@ -15364,10 +15436,10 @@
         <v>404</v>
       </c>
       <c r="I255" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="J255">
-        <v>1.0714786357959732E-2</v>
+        <v>1.0440522274822778E-2</v>
       </c>
     </row>
     <row r="256" spans="8:10" x14ac:dyDescent="0.45">
@@ -15375,10 +15447,10 @@
         <v>404</v>
       </c>
       <c r="I256" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="J256">
-        <v>1.0657044413473869E-2</v>
+        <v>1.0440367390442757E-2</v>
       </c>
     </row>
     <row r="257" spans="8:10" x14ac:dyDescent="0.45">
@@ -15386,10 +15458,10 @@
         <v>404</v>
       </c>
       <c r="I257" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="J257">
-        <v>1.1654566743820146E-4</v>
+        <v>1.0439634646521274E-2</v>
       </c>
     </row>
     <row r="258" spans="8:10" x14ac:dyDescent="0.45">
@@ -15397,10 +15469,10 @@
         <v>404</v>
       </c>
       <c r="I258" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="J258">
-        <v>1.1654566743820146E-4</v>
+        <v>1.0442006630399309E-2</v>
       </c>
     </row>
     <row r="259" spans="8:10" x14ac:dyDescent="0.45">
@@ -15408,10 +15480,10 @@
         <v>404</v>
       </c>
       <c r="I259" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="J259">
-        <v>1.1678174674420321E-4</v>
+        <v>1.0498574911710482E-2</v>
       </c>
     </row>
     <row r="260" spans="8:10" x14ac:dyDescent="0.45">
@@ -15419,10 +15491,10 @@
         <v>404</v>
       </c>
       <c r="I260" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="J260">
-        <v>1.1786964951626355E-4</v>
+        <v>1.0527727531326039E-2</v>
       </c>
     </row>
     <row r="261" spans="8:10" x14ac:dyDescent="0.45">
@@ -15430,10 +15502,10 @@
         <v>404</v>
       </c>
       <c r="I261" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="J261">
-        <v>1.1873732905511329E-4</v>
+        <v>1.0559535995647018E-2</v>
       </c>
     </row>
     <row r="262" spans="8:10" x14ac:dyDescent="0.45">
@@ -15441,10 +15513,10 @@
         <v>404</v>
       </c>
       <c r="I262" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="J262">
-        <v>1.1977531456097923E-4</v>
+        <v>1.0549674929583011E-2</v>
       </c>
     </row>
     <row r="263" spans="8:10" x14ac:dyDescent="0.45">
@@ -15452,10 +15524,10 @@
         <v>404</v>
       </c>
       <c r="I263" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="J263">
-        <v>1.2046622825130526E-4</v>
+        <v>1.0512464661302821E-2</v>
       </c>
     </row>
     <row r="264" spans="8:10" x14ac:dyDescent="0.45">
@@ -15463,10 +15535,10 @@
         <v>404</v>
       </c>
       <c r="I264" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="J264">
-        <v>1.2059836219123162E-4</v>
+        <v>1.0459804816919493E-2</v>
       </c>
     </row>
     <row r="265" spans="8:10" x14ac:dyDescent="0.45">
@@ -15474,10 +15546,10 @@
         <v>404</v>
       </c>
       <c r="I265" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="J265">
-        <v>1.2006395381197392E-4</v>
+        <v>1.0398079730577506E-2</v>
       </c>
     </row>
     <row r="266" spans="8:10" x14ac:dyDescent="0.45">
@@ -15485,10 +15557,10 @@
         <v>404</v>
       </c>
       <c r="I266" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="J266">
-        <v>1.199829116621524E-4</v>
+        <v>1.0276058718309182E-2</v>
       </c>
     </row>
     <row r="267" spans="8:10" x14ac:dyDescent="0.45">
@@ -15496,10 +15568,10 @@
         <v>404</v>
       </c>
       <c r="I267" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="J267">
-        <v>1.200014104137421E-4</v>
+        <v>1.0220681075468429E-2</v>
       </c>
     </row>
     <row r="268" spans="8:10" x14ac:dyDescent="0.45">
@@ -15507,10 +15579,10 @@
         <v>404</v>
       </c>
       <c r="I268" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="J268">
-        <v>1.200014104137421E-4</v>
+        <v>1.1181329529002723E-4</v>
       </c>
     </row>
     <row r="269" spans="8:10" x14ac:dyDescent="0.45">
@@ -15518,10 +15590,10 @@
         <v>404</v>
       </c>
       <c r="I269" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="J269">
-        <v>1.1998966517463753E-4</v>
+        <v>1.1177358856714907E-4</v>
       </c>
     </row>
     <row r="270" spans="8:10" x14ac:dyDescent="0.45">
@@ -15529,10 +15601,10 @@
         <v>404</v>
       </c>
       <c r="I270" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="J270">
-        <v>1.1998966517463753E-4</v>
+        <v>1.1177358856714907E-4</v>
       </c>
     </row>
     <row r="271" spans="8:10" x14ac:dyDescent="0.45">
@@ -15540,10 +15612,10 @@
         <v>404</v>
       </c>
       <c r="I271" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="J271">
-        <v>1.2063183612267963E-4</v>
+        <v>1.1200000136994373E-4</v>
       </c>
     </row>
     <row r="272" spans="8:10" x14ac:dyDescent="0.45">
@@ -15551,10 +15623,10 @@
         <v>404</v>
       </c>
       <c r="I272" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="J272">
-        <v>1.2100327930936151E-4</v>
+        <v>1.1304335887535946E-4</v>
       </c>
     </row>
     <row r="273" spans="8:10" x14ac:dyDescent="0.45">
@@ -15562,10 +15634,10 @@
         <v>404</v>
       </c>
       <c r="I273" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="J273">
-        <v>1.2128868861960243E-4</v>
+        <v>1.1387551040801897E-4</v>
       </c>
     </row>
     <row r="274" spans="8:10" x14ac:dyDescent="0.45">
@@ -15573,10 +15645,10 @@
         <v>404</v>
       </c>
       <c r="I274" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="J274">
-        <v>1.2151008637672348E-4</v>
+        <v>1.1487099455960996E-4</v>
       </c>
     </row>
     <row r="275" spans="8:10" x14ac:dyDescent="0.45">
@@ -15584,10 +15656,10 @@
         <v>404</v>
       </c>
       <c r="I275" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="J275">
-        <v>1.208353223901662E-4</v>
+        <v>1.1553361809813713E-4</v>
       </c>
     </row>
     <row r="276" spans="8:10" x14ac:dyDescent="0.45">
@@ -15595,10 +15667,10 @@
         <v>404</v>
       </c>
       <c r="I276" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="J276">
-        <v>1.1990832939383842E-4</v>
+        <v>1.1566034168179088E-4</v>
       </c>
     </row>
     <row r="277" spans="8:10" x14ac:dyDescent="0.45">
@@ -15606,10 +15678,10 @@
         <v>404</v>
       </c>
       <c r="I277" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J277">
-        <v>1.1910642319397424E-4</v>
+        <v>1.1514781518790245E-4</v>
       </c>
     </row>
     <row r="278" spans="8:10" x14ac:dyDescent="0.45">
@@ -15617,10 +15689,10 @@
         <v>404</v>
       </c>
       <c r="I278" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="J278">
-        <v>1.1771813593181466E-4</v>
+        <v>1.1507009138992816E-4</v>
       </c>
     </row>
     <row r="279" spans="8:10" x14ac:dyDescent="0.45">
@@ -15628,10 +15700,10 @@
         <v>404</v>
       </c>
       <c r="I279" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="J279">
-        <v>1.170372056947275E-4</v>
+        <v>1.1508783269163968E-4</v>
       </c>
     </row>
     <row r="280" spans="8:10" x14ac:dyDescent="0.45">
@@ -15639,10 +15711,10 @@
         <v>404</v>
       </c>
       <c r="I280" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="J280">
-        <v>1.0529210788516504E-2</v>
+        <v>1.1508783269163968E-4</v>
       </c>
     </row>
     <row r="281" spans="8:10" x14ac:dyDescent="0.45">
@@ -15650,10 +15722,10 @@
         <v>404</v>
       </c>
       <c r="I281" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="J281">
-        <v>1.0529254245901192E-2</v>
+        <v>1.1507656837309267E-4</v>
       </c>
     </row>
     <row r="282" spans="8:10" x14ac:dyDescent="0.45">
@@ -15661,10 +15733,10 @@
         <v>404</v>
       </c>
       <c r="I282" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="J282">
-        <v>1.0535368817379029E-2</v>
+        <v>1.1507656837309267E-4</v>
       </c>
     </row>
     <row r="283" spans="8:10" x14ac:dyDescent="0.45">
@@ -15672,10 +15744,10 @@
         <v>404</v>
       </c>
       <c r="I283" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="J283">
-        <v>1.0576662141760902E-2</v>
+        <v>1.1569244498964983E-4</v>
       </c>
     </row>
     <row r="284" spans="8:10" x14ac:dyDescent="0.45">
@@ -15683,10 +15755,10 @@
         <v>404</v>
       </c>
       <c r="I284" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="J284">
-        <v>1.0620202917645436E-2</v>
+        <v>1.1604867906369865E-4</v>
       </c>
     </row>
     <row r="285" spans="8:10" x14ac:dyDescent="0.45">
@@ -15694,10 +15766,10 @@
         <v>404</v>
       </c>
       <c r="I285" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="J285">
-        <v>1.0698620006527064E-2</v>
+        <v>1.163224020043907E-4</v>
       </c>
     </row>
     <row r="286" spans="8:10" x14ac:dyDescent="0.45">
@@ -15705,10 +15777,10 @@
         <v>404</v>
       </c>
       <c r="I286" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="J286">
-        <v>1.0757185879536113E-2</v>
+        <v>1.1653473440900162E-4</v>
       </c>
     </row>
     <row r="287" spans="8:10" x14ac:dyDescent="0.45">
@@ -15716,10 +15788,10 @@
         <v>404</v>
       </c>
       <c r="I287" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="J287">
-        <v>1.0786805317140982E-2</v>
+        <v>1.1588759930847655E-4</v>
       </c>
     </row>
     <row r="288" spans="8:10" x14ac:dyDescent="0.45">
@@ -15727,10 +15799,10 @@
         <v>404</v>
       </c>
       <c r="I288" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="J288">
-        <v>1.0792567825076659E-2</v>
+        <v>1.1499856296715472E-4</v>
       </c>
     </row>
     <row r="289" spans="8:10" x14ac:dyDescent="0.45">
@@ -15738,10 +15810,10 @@
         <v>404</v>
       </c>
       <c r="I289" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="J289">
-        <v>1.0800595108742674E-2</v>
+        <v>1.1422949161835839E-4</v>
       </c>
     </row>
     <row r="290" spans="8:10" x14ac:dyDescent="0.45">
@@ -15749,10 +15821,10 @@
         <v>404</v>
       </c>
       <c r="I290" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="J290">
-        <v>1.0800909587519699E-2</v>
+        <v>1.1289804916610318E-4</v>
       </c>
     </row>
     <row r="291" spans="8:10" x14ac:dyDescent="0.45">
@@ -15760,10 +15832,10 @@
         <v>404</v>
       </c>
       <c r="I291" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="J291">
-        <v>1.0799670758425145E-2</v>
+        <v>1.1224500029834095E-4</v>
       </c>
     </row>
     <row r="292" spans="8:10" x14ac:dyDescent="0.45">
@@ -15771,10 +15843,10 @@
         <v>404</v>
       </c>
       <c r="I292" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="J292">
-        <v>1.0796769390735341E-2</v>
+        <v>1.0105178246772607E-2</v>
       </c>
     </row>
     <row r="293" spans="8:10" x14ac:dyDescent="0.45">
@@ -15782,10 +15854,10 @@
         <v>404</v>
       </c>
       <c r="I293" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="J293">
-        <v>1.0795401070379658E-2</v>
+        <v>1.0098081726087997E-2</v>
       </c>
     </row>
     <row r="294" spans="8:10" x14ac:dyDescent="0.45">
@@ -15793,10 +15865,10 @@
         <v>404</v>
       </c>
       <c r="I294" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="J294">
-        <v>1.079246064976983E-2</v>
+        <v>1.0098123404066621E-2</v>
       </c>
     </row>
     <row r="295" spans="8:10" x14ac:dyDescent="0.45">
@@ -15804,10 +15876,10 @@
         <v>404</v>
       </c>
       <c r="I295" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="J295">
-        <v>1.080322809771894E-2</v>
+        <v>1.010398760830219E-2</v>
       </c>
     </row>
     <row r="296" spans="8:10" x14ac:dyDescent="0.45">
@@ -15815,10 +15887,10 @@
         <v>404</v>
       </c>
       <c r="I296" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="J296">
-        <v>1.0805483770888972E-2</v>
+        <v>1.0143590136233798E-2</v>
       </c>
     </row>
     <row r="297" spans="8:10" x14ac:dyDescent="0.45">
@@ -15826,10 +15898,10 @@
         <v>404</v>
       </c>
       <c r="I297" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="J297">
-        <v>1.0809544393678398E-2</v>
+        <v>1.0185348091519376E-2</v>
       </c>
     </row>
     <row r="298" spans="8:10" x14ac:dyDescent="0.45">
@@ -15837,10 +15909,10 @@
         <v>404</v>
       </c>
       <c r="I298" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="J298">
-        <v>1.0798066652394439E-2</v>
+        <v>1.0260554314298412E-2</v>
       </c>
     </row>
     <row r="299" spans="8:10" x14ac:dyDescent="0.45">
@@ -15848,10 +15920,10 @@
         <v>404</v>
       </c>
       <c r="I299" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="J299">
-        <v>1.0765935789038035E-2</v>
+        <v>1.0316722149085238E-2</v>
       </c>
     </row>
     <row r="300" spans="8:10" x14ac:dyDescent="0.45">
@@ -15859,10 +15931,10 @@
         <v>404</v>
       </c>
       <c r="I300" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="J300">
-        <v>1.0725179515714217E-2</v>
+        <v>1.0345128789205021E-2</v>
       </c>
     </row>
     <row r="301" spans="8:10" x14ac:dyDescent="0.45">
@@ -15870,10 +15942,10 @@
         <v>404</v>
       </c>
       <c r="I301" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="J301">
-        <v>1.0619008720459479E-2</v>
+        <v>1.0350655345492144E-2</v>
       </c>
     </row>
     <row r="302" spans="8:10" x14ac:dyDescent="0.45">
@@ -15881,10 +15953,10 @@
         <v>404</v>
       </c>
       <c r="I302" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="J302">
-        <v>1.0571669240617552E-2</v>
+        <v>1.0358353944003088E-2</v>
       </c>
     </row>
     <row r="303" spans="8:10" x14ac:dyDescent="0.45">
@@ -15892,10 +15964,10 @@
         <v>404</v>
       </c>
       <c r="I303" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="J303">
-        <v>1.1702136880266953E-4</v>
+        <v>1.0358655546132184E-2</v>
       </c>
     </row>
     <row r="304" spans="8:10" x14ac:dyDescent="0.45">
@@ -15903,10 +15975,10 @@
         <v>404</v>
       </c>
       <c r="I304" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="J304">
-        <v>1.1702136880266953E-4</v>
+        <v>1.035746744213344E-2</v>
       </c>
     </row>
     <row r="305" spans="8:10" x14ac:dyDescent="0.45">
@@ -15914,10 +15986,10 @@
         <v>404</v>
       </c>
       <c r="I305" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="J305">
-        <v>1.1709683196391637E-4</v>
+        <v>1.0354684873844368E-2</v>
       </c>
     </row>
     <row r="306" spans="8:10" x14ac:dyDescent="0.45">
@@ -15925,10 +15997,10 @@
         <v>404</v>
       </c>
       <c r="I306" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="J306">
-        <v>1.1764269195130102E-4</v>
+        <v>1.0353372580733643E-2</v>
       </c>
     </row>
     <row r="307" spans="8:10" x14ac:dyDescent="0.45">
@@ -15936,10 +16008,10 @@
         <v>404</v>
       </c>
       <c r="I307" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="J307">
-        <v>1.1819853539192457E-4</v>
+        <v>1.0350552558585401E-2</v>
       </c>
     </row>
     <row r="308" spans="8:10" x14ac:dyDescent="0.45">
@@ -15947,10 +16019,10 @@
         <v>404</v>
       </c>
       <c r="I308" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="J308">
-        <v>1.1931403947588064E-4</v>
+        <v>1.0360879122613362E-2</v>
       </c>
     </row>
     <row r="309" spans="8:10" x14ac:dyDescent="0.45">
@@ -15958,10 +16030,10 @@
         <v>404</v>
       </c>
       <c r="I309" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="J309">
-        <v>1.2007454370790123E-4</v>
+        <v>1.0363042434990312E-2</v>
       </c>
     </row>
     <row r="310" spans="8:10" x14ac:dyDescent="0.45">
@@ -15969,10 +16041,10 @@
         <v>404</v>
       </c>
       <c r="I310" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="J310">
-        <v>1.2032295551496278E-4</v>
+        <v>1.0366936791519975E-2</v>
       </c>
     </row>
     <row r="311" spans="8:10" x14ac:dyDescent="0.45">
@@ -15980,10 +16052,10 @@
         <v>404</v>
       </c>
       <c r="I311" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="J311">
-        <v>1.2036435748280635E-4</v>
+        <v>1.0355929017827883E-2</v>
       </c>
     </row>
     <row r="312" spans="8:10" x14ac:dyDescent="0.45">
@@ -15991,10 +16063,10 @@
         <v>404</v>
       </c>
       <c r="I312" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="J312">
-        <v>1.2045362130000105E-4</v>
+        <v>1.0325113784794787E-2</v>
       </c>
     </row>
     <row r="313" spans="8:10" x14ac:dyDescent="0.45">
@@ -16002,10 +16074,10 @@
         <v>404</v>
       </c>
       <c r="I313" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="J313">
-        <v>1.2044892320435923E-4</v>
+        <v>1.0286026317828739E-2</v>
       </c>
     </row>
     <row r="314" spans="8:10" x14ac:dyDescent="0.45">
@@ -16013,10 +16085,10 @@
         <v>404</v>
       </c>
       <c r="I314" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="J314">
-        <v>1.2044892320435923E-4</v>
+        <v>1.0184202791931111E-2</v>
       </c>
     </row>
     <row r="315" spans="8:10" x14ac:dyDescent="0.45">
@@ -16024,10 +16096,10 @@
         <v>404</v>
       </c>
       <c r="I315" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="J315">
-        <v>1.2043717796525467E-4</v>
+        <v>1.0138801674419469E-2</v>
       </c>
     </row>
     <row r="316" spans="8:10" x14ac:dyDescent="0.45">
@@ -16035,10 +16107,10 @@
         <v>404</v>
       </c>
       <c r="I316" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="J316">
-        <v>1.203857925441722E-4</v>
+        <v>1.1231175978109083E-4</v>
       </c>
     </row>
     <row r="317" spans="8:10" x14ac:dyDescent="0.45">
@@ -16046,10 +16118,10 @@
         <v>404</v>
       </c>
       <c r="I317" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="J317">
-        <v>1.2030152045359694E-4</v>
+        <v>1.1222981186366141E-4</v>
       </c>
     </row>
     <row r="318" spans="8:10" x14ac:dyDescent="0.45">
@@ -16057,10 +16129,10 @@
         <v>404</v>
       </c>
       <c r="I318" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="J318">
-        <v>1.2040928302238132E-4</v>
+        <v>1.1222981186366141E-4</v>
       </c>
     </row>
     <row r="319" spans="8:10" x14ac:dyDescent="0.45">
@@ -16068,10 +16140,10 @@
         <v>404</v>
       </c>
       <c r="I319" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="J319">
-        <v>1.2040928302238132E-4</v>
+        <v>1.1230218511032587E-4</v>
       </c>
     </row>
     <row r="320" spans="8:10" x14ac:dyDescent="0.45">
@@ -16079,10 +16151,10 @@
         <v>404</v>
       </c>
       <c r="I320" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="J320">
-        <v>1.204668346939937E-4</v>
+        <v>1.1282569431479762E-4</v>
       </c>
     </row>
     <row r="321" spans="8:10" x14ac:dyDescent="0.45">
@@ -16090,10 +16162,10 @@
         <v>404</v>
       </c>
       <c r="I321" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="J321">
-        <v>1.2031385295465675E-4</v>
+        <v>1.1335877819003432E-4</v>
       </c>
     </row>
     <row r="322" spans="8:10" x14ac:dyDescent="0.45">
@@ -16101,10 +16173,10 @@
         <v>404</v>
       </c>
       <c r="I322" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="J322">
-        <v>1.1986283577304143E-4</v>
+        <v>1.1442860684403551E-4</v>
       </c>
     </row>
     <row r="323" spans="8:10" x14ac:dyDescent="0.45">
@@ -16112,10 +16184,10 @@
         <v>404</v>
       </c>
       <c r="I323" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="J323">
-        <v>1.1931638852370155E-4</v>
+        <v>1.1515797146995366E-4</v>
       </c>
     </row>
     <row r="324" spans="8:10" x14ac:dyDescent="0.45">
@@ -16123,10 +16195,10 @@
         <v>404</v>
       </c>
       <c r="I324" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="J324">
-        <v>1.180367447232592E-4</v>
+        <v>1.1539621180722267E-4</v>
       </c>
     </row>
     <row r="325" spans="8:10" x14ac:dyDescent="0.45">
@@ -16134,10 +16206,10 @@
         <v>404</v>
       </c>
       <c r="I325" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="J325">
-        <v>1.1750615354671047E-4</v>
+        <v>1.1543591853010084E-4</v>
       </c>
     </row>
     <row r="326" spans="8:10" x14ac:dyDescent="0.45">
@@ -16145,10 +16217,10 @@
         <v>404</v>
       </c>
       <c r="I326" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="J326">
-        <v>1.0415678091272322E-2</v>
+        <v>1.1552152735105803E-4</v>
       </c>
     </row>
     <row r="327" spans="8:10" x14ac:dyDescent="0.45">
@@ -16156,10 +16228,10 @@
         <v>404</v>
       </c>
       <c r="I327" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="J327">
-        <v>1.0414658898149024E-2</v>
+        <v>1.1551702162363923E-4</v>
       </c>
     </row>
     <row r="328" spans="8:10" x14ac:dyDescent="0.45">
@@ -16167,10 +16239,10 @@
         <v>404</v>
       </c>
       <c r="I328" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="J328">
-        <v>1.0431634292226852E-2</v>
+        <v>1.1551702162363923E-4</v>
       </c>
     </row>
     <row r="329" spans="8:10" x14ac:dyDescent="0.45">
@@ -16178,10 +16250,10 @@
         <v>404</v>
       </c>
       <c r="I329" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="J329">
-        <v>1.0464567649045074E-2</v>
+        <v>1.1550575730509224E-4</v>
       </c>
     </row>
     <row r="330" spans="8:10" x14ac:dyDescent="0.45">
@@ -16189,10 +16261,10 @@
         <v>404</v>
       </c>
       <c r="I330" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="J330">
-        <v>1.0503402107620409E-2</v>
+        <v>1.1545647591144911E-4</v>
       </c>
     </row>
     <row r="331" spans="8:10" x14ac:dyDescent="0.45">
@@ -16200,10 +16272,10 @@
         <v>404</v>
       </c>
       <c r="I331" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="J331">
-        <v>1.0576278967216414E-2</v>
+        <v>1.153756544258744E-4</v>
       </c>
     </row>
     <row r="332" spans="8:10" x14ac:dyDescent="0.45">
@@ -16211,10 +16283,10 @@
         <v>404</v>
       </c>
       <c r="I332" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="J332">
-        <v>1.0629345719276704E-2</v>
+        <v>1.154790045485431E-4</v>
       </c>
     </row>
     <row r="333" spans="8:10" x14ac:dyDescent="0.45">
@@ -16222,10 +16294,10 @@
         <v>404</v>
       </c>
       <c r="I333" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="J333">
-        <v>1.0660670565599557E-2</v>
+        <v>1.154790045485431E-4</v>
       </c>
     </row>
     <row r="334" spans="8:10" x14ac:dyDescent="0.45">
@@ -16233,10 +16305,10 @@
         <v>404</v>
       </c>
       <c r="I334" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="J334">
-        <v>1.0679055094738954E-2</v>
+        <v>1.1553419970942341E-4</v>
       </c>
     </row>
     <row r="335" spans="8:10" x14ac:dyDescent="0.45">
@@ -16244,10 +16316,10 @@
         <v>404</v>
       </c>
       <c r="I335" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="J335">
-        <v>1.0701015168292761E-2</v>
+        <v>1.1538748196034874E-4</v>
       </c>
     </row>
     <row r="336" spans="8:10" x14ac:dyDescent="0.45">
@@ -16255,10 +16327,10 @@
         <v>404</v>
       </c>
       <c r="I336" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="J336">
-        <v>1.0701826177052931E-2</v>
+        <v>1.1495493212814401E-4</v>
       </c>
     </row>
     <row r="337" spans="8:10" x14ac:dyDescent="0.45">
@@ -16266,10 +16338,10 @@
         <v>404</v>
       </c>
       <c r="I337" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="J337">
-        <v>1.0701743079486266E-2</v>
+        <v>1.1443085970774491E-4</v>
       </c>
     </row>
     <row r="338" spans="8:10" x14ac:dyDescent="0.45">
@@ -16277,10 +16349,10 @@
         <v>404</v>
       </c>
       <c r="I338" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="J338">
-        <v>1.0693420109425793E-2</v>
+        <v>1.1320361220204944E-4</v>
       </c>
     </row>
     <row r="339" spans="8:10" x14ac:dyDescent="0.45">
@@ -16288,10 +16360,10 @@
         <v>404</v>
       </c>
       <c r="I339" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="J339">
-        <v>1.0688814801172893E-2</v>
+        <v>1.1269474661168878E-4</v>
       </c>
     </row>
     <row r="340" spans="8:10" x14ac:dyDescent="0.45">
@@ -16299,10 +16371,10 @@
         <v>404</v>
       </c>
       <c r="I340" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="J340">
-        <v>1.0664680977491811E-2</v>
+        <v>9.9959946284492833E-3</v>
       </c>
     </row>
     <row r="341" spans="8:10" x14ac:dyDescent="0.45">
@@ -16310,10 +16382,10 @@
         <v>404</v>
       </c>
       <c r="I341" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="J341">
-        <v>1.0673834335956976E-2</v>
+        <v>9.989197738638024E-3</v>
       </c>
     </row>
     <row r="342" spans="8:10" x14ac:dyDescent="0.45">
@@ -16321,10 +16393,10 @@
         <v>404</v>
       </c>
       <c r="I342" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="J342">
-        <v>1.0672111603011314E-2</v>
+        <v>9.9882202773961086E-3</v>
       </c>
     </row>
     <row r="343" spans="8:10" x14ac:dyDescent="0.45">
@@ -16332,10 +16404,10 @@
         <v>404</v>
       </c>
       <c r="I343" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="J343">
-        <v>1.067647378481475E-2</v>
+        <v>1.0004500596992085E-2</v>
       </c>
     </row>
     <row r="344" spans="8:10" x14ac:dyDescent="0.45">
@@ -16343,10 +16415,10 @@
         <v>404</v>
       </c>
       <c r="I344" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="J344">
-        <v>1.0665508429586728E-2</v>
+        <v>1.0036085464589905E-2</v>
       </c>
     </row>
     <row r="345" spans="8:10" x14ac:dyDescent="0.45">
@@ -16354,10 +16426,10 @@
         <v>404</v>
       </c>
       <c r="I345" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="J345">
-        <v>1.0631352687008698E-2</v>
+        <v>1.00733298074337E-2</v>
       </c>
     </row>
     <row r="346" spans="8:10" x14ac:dyDescent="0.45">
@@ -16365,10 +16437,10 @@
         <v>404</v>
       </c>
       <c r="I346" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="J346">
-        <v>1.0594103248450523E-2</v>
+        <v>1.0143222651154117E-2</v>
       </c>
     </row>
     <row r="347" spans="8:10" x14ac:dyDescent="0.45">
@@ -16376,10 +16448,10 @@
         <v>404</v>
       </c>
       <c r="I347" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="J347">
-        <v>1.0504422768898595E-2</v>
+        <v>1.0194116531997238E-2</v>
       </c>
     </row>
     <row r="348" spans="8:10" x14ac:dyDescent="0.45">
@@ -16387,10 +16459,10 @@
         <v>404</v>
       </c>
       <c r="I348" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="J348">
-        <v>1.0460519065125731E-2</v>
+        <v>1.0224158751170047E-2</v>
       </c>
     </row>
     <row r="349" spans="8:10" x14ac:dyDescent="0.45">
@@ -16398,10 +16470,10 @@
         <v>404</v>
       </c>
       <c r="I349" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="J349">
-        <v>1.1704831228645575E-4</v>
+        <v>1.0241790507383698E-2</v>
       </c>
     </row>
     <row r="350" spans="8:10" x14ac:dyDescent="0.45">
@@ -16409,10 +16481,10 @@
         <v>404</v>
       </c>
       <c r="I350" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="J350">
-        <v>1.1704831228645575E-4</v>
+        <v>1.0262851403771022E-2</v>
       </c>
     </row>
     <row r="351" spans="8:10" x14ac:dyDescent="0.45">
@@ -16420,10 +16492,10 @@
         <v>404</v>
       </c>
       <c r="I351" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="J351">
-        <v>1.1730347760600242E-4</v>
+        <v>1.0263629204966693E-2</v>
       </c>
     </row>
     <row r="352" spans="8:10" x14ac:dyDescent="0.45">
@@ -16431,10 +16503,10 @@
         <v>404</v>
       </c>
       <c r="I352" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="J352">
-        <v>1.1773658329798325E-4</v>
+        <v>1.0263549509912972E-2</v>
       </c>
     </row>
     <row r="353" spans="8:10" x14ac:dyDescent="0.45">
@@ -16442,10 +16514,10 @@
         <v>404</v>
       </c>
       <c r="I353" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="J353">
-        <v>1.1825249292565127E-4</v>
+        <v>1.0255567332182604E-2</v>
       </c>
     </row>
     <row r="354" spans="8:10" x14ac:dyDescent="0.45">
@@ -16453,10 +16525,10 @@
         <v>404</v>
       </c>
       <c r="I354" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="J354">
-        <v>1.1920503181703149E-4</v>
+        <v>1.0251150592880327E-2</v>
       </c>
     </row>
     <row r="355" spans="8:10" x14ac:dyDescent="0.45">
@@ -16464,10 +16536,10 @@
         <v>404</v>
       </c>
       <c r="I355" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="J355">
-        <v>1.1991356336601438E-4</v>
+        <v>1.0228004952737919E-2</v>
       </c>
     </row>
     <row r="356" spans="8:10" x14ac:dyDescent="0.45">
@@ -16475,10 +16547,10 @@
         <v>404</v>
       </c>
       <c r="I356" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="J356">
-        <v>1.2008533748791865E-4</v>
+        <v>1.0236783517789559E-2</v>
       </c>
     </row>
     <row r="357" spans="8:10" x14ac:dyDescent="0.45">
@@ -16486,10 +16558,10 @@
         <v>404</v>
       </c>
       <c r="I357" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="J357">
-        <v>1.2036898501229388E-4</v>
+        <v>1.0235131323866676E-2</v>
       </c>
     </row>
     <row r="358" spans="8:10" x14ac:dyDescent="0.45">
@@ -16497,10 +16569,10 @@
         <v>404</v>
       </c>
       <c r="I358" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="J358">
-        <v>1.2048761192724999E-4</v>
+        <v>1.0239314891775033E-2</v>
       </c>
     </row>
     <row r="359" spans="8:10" x14ac:dyDescent="0.45">
@@ -16508,10 +16580,10 @@
         <v>404</v>
       </c>
       <c r="I359" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="J359">
-        <v>1.2048291383160818E-4</v>
+        <v>1.0228798523979555E-2</v>
       </c>
     </row>
     <row r="360" spans="8:10" x14ac:dyDescent="0.45">
@@ -16519,10 +16591,10 @@
         <v>404</v>
       </c>
       <c r="I360" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="J360">
-        <v>1.2048291383160818E-4</v>
+        <v>1.0196041322428956E-2</v>
       </c>
     </row>
     <row r="361" spans="8:10" x14ac:dyDescent="0.45">
@@ -16530,10 +16602,10 @@
         <v>404</v>
       </c>
       <c r="I361" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="J361">
-        <v>1.2040128441983145E-4</v>
+        <v>1.0160317099373078E-2</v>
       </c>
     </row>
     <row r="362" spans="8:10" x14ac:dyDescent="0.45">
@@ -16541,10 +16613,10 @@
         <v>404</v>
       </c>
       <c r="I362" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="J362">
-        <v>1.203190677460995E-4</v>
+        <v>1.0074308676715436E-2</v>
       </c>
     </row>
     <row r="363" spans="8:10" x14ac:dyDescent="0.45">
@@ -16552,10 +16624,10 @@
         <v>404</v>
       </c>
       <c r="I363" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="J363">
-        <v>1.2005685528309007E-4</v>
+        <v>1.0032202653986754E-2</v>
       </c>
     </row>
     <row r="364" spans="8:10" x14ac:dyDescent="0.45">
@@ -16563,10 +16635,10 @@
         <v>404</v>
       </c>
       <c r="I364" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="J364">
-        <v>1.2016461785187446E-4</v>
+        <v>1.1228268648407974E-4</v>
       </c>
     </row>
     <row r="365" spans="8:10" x14ac:dyDescent="0.45">
@@ -16574,10 +16646,10 @@
         <v>404</v>
       </c>
       <c r="I365" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="J365">
-        <v>1.201819420795537E-4</v>
+        <v>1.1225565211956695E-4</v>
       </c>
     </row>
     <row r="366" spans="8:10" x14ac:dyDescent="0.45">
@@ -16585,10 +16657,10 @@
         <v>404</v>
       </c>
       <c r="I366" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="J366">
-        <v>1.2023949375116605E-4</v>
+        <v>1.1225565211956695E-4</v>
       </c>
     </row>
     <row r="367" spans="8:10" x14ac:dyDescent="0.45">
@@ -16596,10 +16668,10 @@
         <v>404</v>
       </c>
       <c r="I367" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="J367">
-        <v>1.2005450623526916E-4</v>
+        <v>1.1250036944000049E-4</v>
       </c>
     </row>
     <row r="368" spans="8:10" x14ac:dyDescent="0.45">
@@ -16607,10 +16679,10 @@
         <v>404</v>
       </c>
       <c r="I368" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="J368">
-        <v>1.1951539976036962E-4</v>
+        <v>1.1291574118642106E-4</v>
       </c>
     </row>
     <row r="369" spans="8:10" x14ac:dyDescent="0.45">
@@ -16618,10 +16690,10 @@
         <v>404</v>
       </c>
       <c r="I369" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J369">
-        <v>1.1908170680643357E-4</v>
+        <v>1.1341052637859796E-4</v>
       </c>
     </row>
     <row r="370" spans="8:10" x14ac:dyDescent="0.45">
@@ -16629,10 +16701,10 @@
         <v>404</v>
       </c>
       <c r="I370" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="J370">
-        <v>1.1798205879526866E-4</v>
+        <v>1.1432406261275953E-4</v>
       </c>
     </row>
     <row r="371" spans="8:10" x14ac:dyDescent="0.45">
@@ -16640,10 +16712,186 @@
         <v>404</v>
       </c>
       <c r="I371" t="s">
+        <v>379</v>
+      </c>
+      <c r="J371">
+        <v>1.150035826291072E-4</v>
+      </c>
+    </row>
+    <row r="372" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H372" t="s">
+        <v>404</v>
+      </c>
+      <c r="I372" t="s">
+        <v>380</v>
+      </c>
+      <c r="J372">
+        <v>1.1516832328785706E-4</v>
+      </c>
+    </row>
+    <row r="373" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H373" t="s">
+        <v>404</v>
+      </c>
+      <c r="I373" t="s">
+        <v>381</v>
+      </c>
+      <c r="J373">
+        <v>1.1544035658076708E-4</v>
+      </c>
+    </row>
+    <row r="374" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H374" t="s">
+        <v>404</v>
+      </c>
+      <c r="I374" t="s">
+        <v>382</v>
+      </c>
+      <c r="J374">
+        <v>1.1555412619809176E-4</v>
+      </c>
+    </row>
+    <row r="375" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H375" t="s">
+        <v>404</v>
+      </c>
+      <c r="I375" t="s">
+        <v>383</v>
+      </c>
+      <c r="J375">
+        <v>1.1554962047067297E-4</v>
+      </c>
+    </row>
+    <row r="376" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H376" t="s">
+        <v>404</v>
+      </c>
+      <c r="I376" t="s">
+        <v>384</v>
+      </c>
+      <c r="J376">
+        <v>1.1554962047067297E-4</v>
+      </c>
+    </row>
+    <row r="377" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H377" t="s">
+        <v>404</v>
+      </c>
+      <c r="I377" t="s">
+        <v>385</v>
+      </c>
+      <c r="J377">
+        <v>1.1547133345677133E-4</v>
+      </c>
+    </row>
+    <row r="378" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H378" t="s">
+        <v>404</v>
+      </c>
+      <c r="I378" t="s">
+        <v>386</v>
+      </c>
+      <c r="J378">
+        <v>1.1539248322694234E-4</v>
+      </c>
+    </row>
+    <row r="379" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H379" t="s">
+        <v>404</v>
+      </c>
+      <c r="I379" t="s">
+        <v>387</v>
+      </c>
+      <c r="J379">
+        <v>1.1514100731538059E-4</v>
+      </c>
+    </row>
+    <row r="380" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H380" t="s">
+        <v>404</v>
+      </c>
+      <c r="I380" t="s">
+        <v>388</v>
+      </c>
+      <c r="J380">
+        <v>1.1524435743804932E-4</v>
+      </c>
+    </row>
+    <row r="381" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H381" t="s">
+        <v>404</v>
+      </c>
+      <c r="I381" t="s">
+        <v>389</v>
+      </c>
+      <c r="J381">
+        <v>1.1526097230790612E-4</v>
+      </c>
+    </row>
+    <row r="382" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H382" t="s">
+        <v>404</v>
+      </c>
+      <c r="I382" t="s">
+        <v>390</v>
+      </c>
+      <c r="J382">
+        <v>1.1531616746878642E-4</v>
+      </c>
+    </row>
+    <row r="383" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H383" t="s">
+        <v>404</v>
+      </c>
+      <c r="I383" t="s">
+        <v>391</v>
+      </c>
+      <c r="J383">
+        <v>1.1513875445167119E-4</v>
+      </c>
+    </row>
+    <row r="384" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H384" t="s">
+        <v>404</v>
+      </c>
+      <c r="I384" t="s">
+        <v>392</v>
+      </c>
+      <c r="J384">
+        <v>1.1462172223036396E-4</v>
+      </c>
+    </row>
+    <row r="385" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H385" t="s">
+        <v>404</v>
+      </c>
+      <c r="I385" t="s">
+        <v>393</v>
+      </c>
+      <c r="J385">
+        <v>1.1420578726801605E-4</v>
+      </c>
+    </row>
+    <row r="386" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H386" t="s">
+        <v>404</v>
+      </c>
+      <c r="I386" t="s">
         <v>394</v>
       </c>
-      <c r="J371">
-        <v>1.1741858094922714E-4</v>
+      <c r="J386">
+        <v>1.1315116544405332E-4</v>
+      </c>
+    </row>
+    <row r="387" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H387" t="s">
+        <v>404</v>
+      </c>
+      <c r="I387" t="s">
+        <v>395</v>
+      </c>
+      <c r="J387">
+        <v>1.1261075976176107E-4</v>
       </c>
     </row>
   </sheetData>
